--- a/Documents/gant_char_gs.xlsx
+++ b/Documents/gant_char_gs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emiru\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emirulurak/Desktop/courses/cs320/CS320/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30835129-3EF1-4742-86AB-DA8C7F0DD657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B3A4D7-F756-7D4D-B55F-DA58916B0896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="prevWBS" localSheetId="0">GanttChart!$A1048576</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">GanttChartPro!$A$1:$C$47</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$4:$7</definedName>
     <definedName name="valuevx">42.314159</definedName>
@@ -448,7 +448,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="156">
   <si>
     <t>WBS</t>
   </si>
@@ -463,9 +463,6 @@
   </si>
   <si>
     <t>Creating Task Dependencies</t>
-  </si>
-  <si>
-    <t>[Task]</t>
   </si>
   <si>
     <t>Changing the Color of the Bars in the Gantt Chart</t>
@@ -1478,9 +1475,6 @@
     <t>Emir Ulurak</t>
   </si>
   <si>
-    <t>Software Development Plan (GS)</t>
-  </si>
-  <si>
     <t>Requirement Analysis</t>
   </si>
   <si>
@@ -1493,37 +1487,73 @@
     <t>Testing and Analysis</t>
   </si>
   <si>
-    <t>Identification</t>
-  </si>
-  <si>
-    <t>SDP Activities</t>
-  </si>
-  <si>
-    <t>Responsibilities</t>
-  </si>
-  <si>
-    <t>Risk Assessment</t>
-  </si>
-  <si>
-    <t>SDPv1 Feedback</t>
-  </si>
-  <si>
-    <t>Revision 1</t>
-  </si>
-  <si>
-    <t>Revision 2</t>
-  </si>
-  <si>
-    <t>Revision 3</t>
-  </si>
-  <si>
-    <t>SDP Final</t>
-  </si>
-  <si>
     <t>Gesture Snake Project Schedule</t>
   </si>
   <si>
     <t>Ozyegin University</t>
+  </si>
+  <si>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t>Project Identification</t>
+  </si>
+  <si>
+    <t>Workstation Identification</t>
+  </si>
+  <si>
+    <t>Design Tools Identification</t>
+  </si>
+  <si>
+    <t>Responsibility Assignments</t>
+  </si>
+  <si>
+    <t>Risk Planning</t>
+  </si>
+  <si>
+    <t>Risk Analysis</t>
+  </si>
+  <si>
+    <t>User Requirements Specification</t>
+  </si>
+  <si>
+    <t>System Architecture</t>
+  </si>
+  <si>
+    <t>System Requirements Specification</t>
+  </si>
+  <si>
+    <t>Software Architecture Overview</t>
+  </si>
+  <si>
+    <t>Software Design Description</t>
+  </si>
+  <si>
+    <t>Controller Implementation</t>
+  </si>
+  <si>
+    <t>GS Implementation</t>
+  </si>
+  <si>
+    <t>GUI and Web Implementation</t>
+  </si>
+  <si>
+    <t>Server Implementation</t>
+  </si>
+  <si>
+    <t>Test Plan</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Static Code Analysis</t>
+  </si>
+  <si>
+    <t>Dependency Analysis</t>
+  </si>
+  <si>
+    <t>Test Coverage Analysis</t>
   </si>
 </sst>
 </file>
@@ -2802,7 +2832,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3188,22 +3218,76 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="34" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="61" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="23" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="23" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="23" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="23" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="23" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="23" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="23" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="23" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="23" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="83" fillId="24" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="23" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="69" fillId="23" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="52" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="52" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3251,62 +3335,11 @@
     <xf numFmtId="167" fontId="52" fillId="23" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="23" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="23" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="23" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="23" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="23" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="23" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="23" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="23" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="61" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -3549,13 +3582,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>28</xdr:col>
-          <xdr:colOff>104775</xdr:colOff>
+          <xdr:colOff>101600</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
@@ -4136,31 +4169,31 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:ET47"/>
+  <dimension ref="A1:ET35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomLeft" activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="25" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="25" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="25" hidden="1" customWidth="1"/>
     <col min="5" max="6" width="12" style="25" customWidth="1"/>
     <col min="7" max="7" width="6" style="25" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="25" customWidth="1"/>
-    <col min="9" max="9" width="5.85546875" style="25" customWidth="1"/>
-    <col min="10" max="10" width="1.42578125" style="25" customWidth="1"/>
-    <col min="11" max="66" width="2.42578125" style="25" customWidth="1"/>
-    <col min="67" max="16384" width="9.140625" style="25"/>
+    <col min="8" max="8" width="6.6640625" style="25" customWidth="1"/>
+    <col min="9" max="9" width="5.83203125" style="25" customWidth="1"/>
+    <col min="10" max="10" width="1.5" style="25" customWidth="1"/>
+    <col min="11" max="66" width="2.5" style="25" customWidth="1"/>
+    <col min="67" max="16384" width="9.1640625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:150" s="43" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:150" s="43" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="116" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B1" s="42"/>
       <c r="C1" s="42"/>
@@ -4169,29 +4202,29 @@
       <c r="F1" s="42"/>
       <c r="G1" s="139"/>
       <c r="K1" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD1" s="141" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE1" s="141"/>
-      <c r="AF1" s="141"/>
-      <c r="AG1" s="141"/>
-      <c r="AH1" s="141"/>
-      <c r="AI1" s="141"/>
-      <c r="AJ1" s="141"/>
-      <c r="AK1" s="141"/>
-      <c r="AL1" s="141"/>
-      <c r="AM1" s="141"/>
-      <c r="AN1" s="141"/>
-      <c r="AO1" s="141"/>
-      <c r="AP1" s="141"/>
-      <c r="AQ1" s="141"/>
-      <c r="AR1" s="141"/>
-    </row>
-    <row r="2" spans="1:150" s="60" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="AD1" s="161" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE1" s="161"/>
+      <c r="AF1" s="161"/>
+      <c r="AG1" s="161"/>
+      <c r="AH1" s="161"/>
+      <c r="AI1" s="161"/>
+      <c r="AJ1" s="161"/>
+      <c r="AK1" s="161"/>
+      <c r="AL1" s="161"/>
+      <c r="AM1" s="161"/>
+      <c r="AN1" s="161"/>
+      <c r="AO1" s="161"/>
+      <c r="AP1" s="161"/>
+      <c r="AQ1" s="161"/>
+      <c r="AR1" s="161"/>
+    </row>
+    <row r="2" spans="1:150" s="60" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="110" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B2" s="57"/>
       <c r="C2" s="57"/>
@@ -4199,7 +4232,7 @@
       <c r="E2" s="57"/>
       <c r="F2" s="59"/>
     </row>
-    <row r="3" spans="1:150" s="103" customFormat="1" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:150" s="103" customFormat="1" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="99"/>
       <c r="B3" s="100"/>
       <c r="C3" s="100"/>
@@ -4265,196 +4298,196 @@
     </row>
     <row r="4" spans="1:150" s="108" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="111" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="150">
+        <v>126</v>
+      </c>
+      <c r="C4" s="168">
         <v>44837</v>
       </c>
-      <c r="D4" s="151"/>
-      <c r="E4" s="152"/>
+      <c r="D4" s="169"/>
+      <c r="E4" s="170"/>
       <c r="H4" s="111" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I4" s="112">
         <v>1</v>
       </c>
-      <c r="K4" s="148" t="str">
+      <c r="K4" s="166" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="143"/>
-      <c r="M4" s="143"/>
-      <c r="N4" s="143"/>
-      <c r="O4" s="143"/>
-      <c r="P4" s="143"/>
-      <c r="Q4" s="153"/>
-      <c r="R4" s="148" t="str">
+      <c r="L4" s="144"/>
+      <c r="M4" s="144"/>
+      <c r="N4" s="144"/>
+      <c r="O4" s="144"/>
+      <c r="P4" s="144"/>
+      <c r="Q4" s="171"/>
+      <c r="R4" s="166" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="143"/>
-      <c r="T4" s="143"/>
-      <c r="U4" s="143"/>
-      <c r="V4" s="143"/>
-      <c r="W4" s="143"/>
-      <c r="X4" s="149"/>
-      <c r="Y4" s="157" t="str">
+      <c r="S4" s="144"/>
+      <c r="T4" s="144"/>
+      <c r="U4" s="144"/>
+      <c r="V4" s="144"/>
+      <c r="W4" s="144"/>
+      <c r="X4" s="167"/>
+      <c r="Y4" s="175" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="143"/>
-      <c r="AA4" s="143"/>
-      <c r="AB4" s="143"/>
-      <c r="AC4" s="143"/>
-      <c r="AD4" s="143"/>
-      <c r="AE4" s="158"/>
-      <c r="AF4" s="142" t="str">
+      <c r="Z4" s="144"/>
+      <c r="AA4" s="144"/>
+      <c r="AB4" s="144"/>
+      <c r="AC4" s="144"/>
+      <c r="AD4" s="144"/>
+      <c r="AE4" s="176"/>
+      <c r="AF4" s="162" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="143"/>
-      <c r="AH4" s="143"/>
-      <c r="AI4" s="143"/>
-      <c r="AJ4" s="143"/>
-      <c r="AK4" s="143"/>
-      <c r="AL4" s="144"/>
-      <c r="AM4" s="171" t="str">
+      <c r="AG4" s="144"/>
+      <c r="AH4" s="144"/>
+      <c r="AI4" s="144"/>
+      <c r="AJ4" s="144"/>
+      <c r="AK4" s="144"/>
+      <c r="AL4" s="163"/>
+      <c r="AM4" s="155" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="143"/>
-      <c r="AO4" s="143"/>
-      <c r="AP4" s="143"/>
-      <c r="AQ4" s="143"/>
-      <c r="AR4" s="143"/>
-      <c r="AS4" s="172"/>
-      <c r="AT4" s="167" t="str">
+      <c r="AN4" s="144"/>
+      <c r="AO4" s="144"/>
+      <c r="AP4" s="144"/>
+      <c r="AQ4" s="144"/>
+      <c r="AR4" s="144"/>
+      <c r="AS4" s="156"/>
+      <c r="AT4" s="151" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="143"/>
-      <c r="AV4" s="143"/>
-      <c r="AW4" s="143"/>
-      <c r="AX4" s="143"/>
-      <c r="AY4" s="143"/>
-      <c r="AZ4" s="168"/>
-      <c r="BA4" s="173" t="str">
+      <c r="AU4" s="144"/>
+      <c r="AV4" s="144"/>
+      <c r="AW4" s="144"/>
+      <c r="AX4" s="144"/>
+      <c r="AY4" s="144"/>
+      <c r="AZ4" s="152"/>
+      <c r="BA4" s="157" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="143"/>
-      <c r="BC4" s="143"/>
-      <c r="BD4" s="143"/>
-      <c r="BE4" s="143"/>
-      <c r="BF4" s="143"/>
-      <c r="BG4" s="174"/>
-      <c r="BH4" s="161" t="str">
+      <c r="BB4" s="144"/>
+      <c r="BC4" s="144"/>
+      <c r="BD4" s="144"/>
+      <c r="BE4" s="144"/>
+      <c r="BF4" s="144"/>
+      <c r="BG4" s="158"/>
+      <c r="BH4" s="143" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="143"/>
-      <c r="BJ4" s="143"/>
-      <c r="BK4" s="143"/>
-      <c r="BL4" s="143"/>
-      <c r="BM4" s="143"/>
-      <c r="BN4" s="162"/>
-    </row>
-    <row r="5" spans="1:150" s="56" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="BI4" s="144"/>
+      <c r="BJ4" s="144"/>
+      <c r="BK4" s="144"/>
+      <c r="BL4" s="144"/>
+      <c r="BM4" s="144"/>
+      <c r="BN4" s="145"/>
+    </row>
+    <row r="5" spans="1:150" s="56" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="109"/>
       <c r="B5" s="111" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="150" t="s">
-        <v>129</v>
-      </c>
-      <c r="D5" s="151"/>
-      <c r="E5" s="152"/>
+        <v>69</v>
+      </c>
+      <c r="C5" s="168" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="169"/>
+      <c r="E5" s="170"/>
       <c r="F5" s="109"/>
       <c r="G5" s="109"/>
       <c r="H5" s="109"/>
       <c r="I5" s="109"/>
-      <c r="K5" s="154">
+      <c r="K5" s="172">
         <f>K6</f>
         <v>44837</v>
       </c>
-      <c r="L5" s="146"/>
-      <c r="M5" s="146"/>
-      <c r="N5" s="146"/>
-      <c r="O5" s="146"/>
-      <c r="P5" s="146"/>
-      <c r="Q5" s="156"/>
-      <c r="R5" s="154">
+      <c r="L5" s="147"/>
+      <c r="M5" s="147"/>
+      <c r="N5" s="147"/>
+      <c r="O5" s="147"/>
+      <c r="P5" s="147"/>
+      <c r="Q5" s="174"/>
+      <c r="R5" s="172">
         <f>R6</f>
         <v>44844</v>
       </c>
-      <c r="S5" s="146"/>
-      <c r="T5" s="146"/>
-      <c r="U5" s="146"/>
-      <c r="V5" s="146"/>
-      <c r="W5" s="146"/>
-      <c r="X5" s="155"/>
-      <c r="Y5" s="159">
+      <c r="S5" s="147"/>
+      <c r="T5" s="147"/>
+      <c r="U5" s="147"/>
+      <c r="V5" s="147"/>
+      <c r="W5" s="147"/>
+      <c r="X5" s="173"/>
+      <c r="Y5" s="177">
         <f>Y6</f>
         <v>44851</v>
       </c>
-      <c r="Z5" s="146"/>
-      <c r="AA5" s="146"/>
-      <c r="AB5" s="146"/>
-      <c r="AC5" s="146"/>
-      <c r="AD5" s="146"/>
-      <c r="AE5" s="160"/>
-      <c r="AF5" s="145">
+      <c r="Z5" s="147"/>
+      <c r="AA5" s="147"/>
+      <c r="AB5" s="147"/>
+      <c r="AC5" s="147"/>
+      <c r="AD5" s="147"/>
+      <c r="AE5" s="178"/>
+      <c r="AF5" s="164">
         <f>AF6</f>
         <v>44858</v>
       </c>
-      <c r="AG5" s="146"/>
-      <c r="AH5" s="146"/>
-      <c r="AI5" s="146"/>
-      <c r="AJ5" s="146"/>
-      <c r="AK5" s="146"/>
-      <c r="AL5" s="147"/>
-      <c r="AM5" s="165">
+      <c r="AG5" s="147"/>
+      <c r="AH5" s="147"/>
+      <c r="AI5" s="147"/>
+      <c r="AJ5" s="147"/>
+      <c r="AK5" s="147"/>
+      <c r="AL5" s="165"/>
+      <c r="AM5" s="149">
         <f>AM6</f>
         <v>44865</v>
       </c>
-      <c r="AN5" s="146"/>
-      <c r="AO5" s="146"/>
-      <c r="AP5" s="146"/>
-      <c r="AQ5" s="146"/>
-      <c r="AR5" s="146"/>
-      <c r="AS5" s="166"/>
-      <c r="AT5" s="169">
+      <c r="AN5" s="147"/>
+      <c r="AO5" s="147"/>
+      <c r="AP5" s="147"/>
+      <c r="AQ5" s="147"/>
+      <c r="AR5" s="147"/>
+      <c r="AS5" s="150"/>
+      <c r="AT5" s="153">
         <f>AT6</f>
         <v>44872</v>
       </c>
-      <c r="AU5" s="146"/>
-      <c r="AV5" s="146"/>
-      <c r="AW5" s="146"/>
-      <c r="AX5" s="146"/>
-      <c r="AY5" s="146"/>
-      <c r="AZ5" s="170"/>
-      <c r="BA5" s="175">
+      <c r="AU5" s="147"/>
+      <c r="AV5" s="147"/>
+      <c r="AW5" s="147"/>
+      <c r="AX5" s="147"/>
+      <c r="AY5" s="147"/>
+      <c r="AZ5" s="154"/>
+      <c r="BA5" s="159">
         <f>BA6</f>
         <v>44879</v>
       </c>
-      <c r="BB5" s="146"/>
-      <c r="BC5" s="146"/>
-      <c r="BD5" s="146"/>
-      <c r="BE5" s="146"/>
-      <c r="BF5" s="146"/>
-      <c r="BG5" s="176"/>
-      <c r="BH5" s="163">
+      <c r="BB5" s="147"/>
+      <c r="BC5" s="147"/>
+      <c r="BD5" s="147"/>
+      <c r="BE5" s="147"/>
+      <c r="BF5" s="147"/>
+      <c r="BG5" s="160"/>
+      <c r="BH5" s="146">
         <f>BH6</f>
         <v>44886</v>
       </c>
-      <c r="BI5" s="146"/>
-      <c r="BJ5" s="146"/>
-      <c r="BK5" s="146"/>
-      <c r="BL5" s="146"/>
-      <c r="BM5" s="146"/>
-      <c r="BN5" s="164"/>
-    </row>
-    <row r="6" spans="1:150" s="54" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BI5" s="147"/>
+      <c r="BJ5" s="147"/>
+      <c r="BK5" s="147"/>
+      <c r="BL5" s="147"/>
+      <c r="BM5" s="147"/>
+      <c r="BN5" s="148"/>
+    </row>
+    <row r="6" spans="1:150" s="54" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K6" s="65">
         <f>C4-WEEKDAY(C4,1)+2+7*(I4-1)</f>
         <v>44837</v>
@@ -4680,33 +4713,33 @@
         <v>44892</v>
       </c>
     </row>
-    <row r="7" spans="1:150" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:150" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="48" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="D7" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="50" t="s">
+      <c r="F7" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="G7" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="G7" s="49" t="s">
+      <c r="H7" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="49" t="s">
+      <c r="I7" s="84" t="s">
         <v>65</v>
-      </c>
-      <c r="I7" s="84" t="s">
-        <v>66</v>
       </c>
       <c r="J7" s="47"/>
       <c r="K7" s="62" t="str">
@@ -5018,13 +5051,13 @@
       <c r="ES7" s="52"/>
       <c r="ET7" s="52"/>
     </row>
-    <row r="8" spans="1:150" s="26" customFormat="1" ht="18.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:150" s="26" customFormat="1" ht="19" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="92" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
       </c>
       <c r="B8" s="80" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D8" s="27"/>
       <c r="E8" s="28"/>
@@ -5090,13 +5123,13 @@
       <c r="BM8" s="27"/>
       <c r="BN8" s="27"/>
     </row>
-    <row r="9" spans="1:150" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:150" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A9" s="93" t="str">
-        <f t="shared" ref="A9:A17" si="8">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" ref="A9:A14" si="8">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
       </c>
       <c r="B9" s="89" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C9" s="90"/>
       <c r="D9" s="91"/>
@@ -5175,13 +5208,13 @@
       <c r="BM9" s="34"/>
       <c r="BN9" s="34"/>
     </row>
-    <row r="10" spans="1:150" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:150" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A10" s="93" t="str">
         <f t="shared" si="8"/>
         <v>1.2</v>
       </c>
       <c r="B10" s="89" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C10" s="90"/>
       <c r="D10" s="91"/>
@@ -5189,7 +5222,7 @@
         <v>44842</v>
       </c>
       <c r="F10" s="85">
-        <f>IF(ISBLANK(E10)," - ",IF(G10=P121,E10,E10+G10-1))</f>
+        <f>IF(ISBLANK(E10)," - ",IF(G10=P109,E10,E10+G10-1))</f>
         <v>44842</v>
       </c>
       <c r="G10" s="45">
@@ -5199,7 +5232,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="104">
-        <f t="shared" ref="I10:I17" si="9">IF(OR(F10=0,E10=0),0,NETWORKDAYS(E10,F10))</f>
+        <f t="shared" ref="I10:I12" si="9">IF(OR(F10=0,E10=0),0,NETWORKDAYS(E10,F10))</f>
         <v>0</v>
       </c>
       <c r="J10" s="96"/>
@@ -5260,13 +5293,13 @@
       <c r="BM10" s="34"/>
       <c r="BN10" s="34"/>
     </row>
-    <row r="11" spans="1:150" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:150" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A11" s="93" t="str">
         <f t="shared" si="8"/>
         <v>1.3</v>
       </c>
       <c r="B11" s="89" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C11" s="90"/>
       <c r="D11" s="91"/>
@@ -5274,7 +5307,7 @@
         <v>44842</v>
       </c>
       <c r="F11" s="85">
-        <f t="shared" ref="F9:F17" si="10">IF(ISBLANK(E11)," - ",IF(G11=0,E11,E11+G11-1))</f>
+        <f t="shared" ref="F11:F12" si="10">IF(ISBLANK(E11)," - ",IF(G11=0,E11,E11+G11-1))</f>
         <v>44843</v>
       </c>
       <c r="G11" s="45">
@@ -5345,32 +5378,32 @@
       <c r="BM11" s="34"/>
       <c r="BN11" s="34"/>
     </row>
-    <row r="12" spans="1:150" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:150" s="32" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A12" s="93" t="str">
         <f t="shared" si="8"/>
         <v>1.4</v>
       </c>
       <c r="B12" s="89" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C12" s="90"/>
       <c r="D12" s="91"/>
       <c r="E12" s="88">
-        <v>44842</v>
+        <v>44843</v>
       </c>
       <c r="F12" s="85">
         <f t="shared" si="10"/>
-        <v>44843</v>
+        <v>44845</v>
       </c>
       <c r="G12" s="45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H12" s="46">
         <v>1</v>
       </c>
       <c r="I12" s="104">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" s="96"/>
       <c r="K12" s="34"/>
@@ -5430,31 +5463,31 @@
       <c r="BM12" s="34"/>
       <c r="BN12" s="34"/>
     </row>
-    <row r="13" spans="1:150" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:150" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A13" s="93" t="str">
         <f t="shared" si="8"/>
         <v>1.5</v>
       </c>
       <c r="B13" s="89" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C13" s="90"/>
       <c r="D13" s="91"/>
       <c r="E13" s="88">
-        <v>43133</v>
+        <v>44846</v>
       </c>
       <c r="F13" s="85">
-        <f t="shared" ref="F13:F17" si="11">IF(ISBLANK(E13)," - ",IF(G13=0,E13,E13+G13-1))</f>
-        <v>43137</v>
+        <f t="shared" ref="F13" si="11">IF(ISBLANK(E13)," - ",IF(G13=0,E13,E13+G13-1))</f>
+        <v>44848</v>
       </c>
       <c r="G13" s="45">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H13" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="104">
-        <f t="shared" ref="I13:I17" si="12">IF(OR(F13=0,E13=0),0,NETWORKDAYS(E13,F13))</f>
+        <f t="shared" ref="I13:I14" si="12">IF(OR(F13=0,E13=0),0,NETWORKDAYS(E13,F13))</f>
         <v>3</v>
       </c>
       <c r="J13" s="96"/>
@@ -5515,7 +5548,7 @@
       <c r="BM13" s="34"/>
       <c r="BN13" s="34"/>
     </row>
-    <row r="14" spans="1:150" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:150" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A14" s="93" t="str">
         <f t="shared" si="8"/>
         <v>1.6</v>
@@ -5526,21 +5559,21 @@
       <c r="C14" s="90"/>
       <c r="D14" s="91"/>
       <c r="E14" s="88">
-        <v>43134</v>
+        <v>44848</v>
       </c>
       <c r="F14" s="85">
-        <f t="shared" si="11"/>
-        <v>43139</v>
+        <f>IF(ISBLANK(E14)," - ",IF(G14=0,E14,E14+G14-1))</f>
+        <v>44851</v>
       </c>
       <c r="G14" s="45">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H14" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="104">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J14" s="96"/>
       <c r="K14" s="34"/>
@@ -5600,117 +5633,103 @@
       <c r="BM14" s="34"/>
       <c r="BN14" s="34"/>
     </row>
-    <row r="15" spans="1:150" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="93" t="str">
-        <f t="shared" si="8"/>
-        <v>1.7</v>
-      </c>
-      <c r="B15" s="89" t="s">
-        <v>141</v>
-      </c>
-      <c r="C15" s="90"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="88">
-        <v>43135</v>
-      </c>
-      <c r="F15" s="85">
-        <f t="shared" si="11"/>
-        <v>43141</v>
-      </c>
-      <c r="G15" s="45">
-        <v>7</v>
-      </c>
-      <c r="H15" s="46">
-        <v>0</v>
-      </c>
-      <c r="I15" s="104">
-        <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="J15" s="96"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="34"/>
-      <c r="W15" s="34"/>
-      <c r="X15" s="34"/>
-      <c r="Y15" s="34"/>
-      <c r="Z15" s="34"/>
-      <c r="AA15" s="34"/>
-      <c r="AB15" s="34"/>
-      <c r="AC15" s="34"/>
-      <c r="AD15" s="34"/>
-      <c r="AE15" s="34"/>
-      <c r="AF15" s="34"/>
-      <c r="AG15" s="34"/>
-      <c r="AH15" s="34"/>
-      <c r="AI15" s="34"/>
-      <c r="AJ15" s="34"/>
-      <c r="AK15" s="34"/>
-      <c r="AL15" s="34"/>
-      <c r="AM15" s="34"/>
-      <c r="AN15" s="34"/>
-      <c r="AO15" s="34"/>
-      <c r="AP15" s="34"/>
-      <c r="AQ15" s="34"/>
-      <c r="AR15" s="34"/>
-      <c r="AS15" s="34"/>
-      <c r="AT15" s="34"/>
-      <c r="AU15" s="34"/>
-      <c r="AV15" s="34"/>
-      <c r="AW15" s="34"/>
-      <c r="AX15" s="34"/>
-      <c r="AY15" s="34"/>
-      <c r="AZ15" s="34"/>
-      <c r="BA15" s="34"/>
-      <c r="BB15" s="34"/>
-      <c r="BC15" s="34"/>
-      <c r="BD15" s="34"/>
-      <c r="BE15" s="34"/>
-      <c r="BF15" s="34"/>
-      <c r="BG15" s="34"/>
-      <c r="BH15" s="34"/>
-      <c r="BI15" s="34"/>
-      <c r="BJ15" s="34"/>
-      <c r="BK15" s="34"/>
-      <c r="BL15" s="34"/>
-      <c r="BM15" s="34"/>
-      <c r="BN15" s="34"/>
-    </row>
-    <row r="16" spans="1:150" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:150" s="31" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A15" s="94" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>2</v>
+      </c>
+      <c r="B15" s="81" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" s="36"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="36"/>
+      <c r="W15" s="36"/>
+      <c r="X15" s="36"/>
+      <c r="Y15" s="36"/>
+      <c r="Z15" s="36"/>
+      <c r="AA15" s="36"/>
+      <c r="AB15" s="36"/>
+      <c r="AC15" s="36"/>
+      <c r="AD15" s="36"/>
+      <c r="AE15" s="36"/>
+      <c r="AF15" s="36"/>
+      <c r="AG15" s="36"/>
+      <c r="AH15" s="36"/>
+      <c r="AI15" s="36"/>
+      <c r="AJ15" s="36"/>
+      <c r="AK15" s="36"/>
+      <c r="AL15" s="36"/>
+      <c r="AM15" s="36"/>
+      <c r="AN15" s="36"/>
+      <c r="AO15" s="36"/>
+      <c r="AP15" s="36"/>
+      <c r="AQ15" s="36"/>
+      <c r="AR15" s="36"/>
+      <c r="AS15" s="36"/>
+      <c r="AT15" s="36"/>
+      <c r="AU15" s="36"/>
+      <c r="AV15" s="36"/>
+      <c r="AW15" s="36"/>
+      <c r="AX15" s="36"/>
+      <c r="AY15" s="36"/>
+      <c r="AZ15" s="36"/>
+      <c r="BA15" s="36"/>
+      <c r="BB15" s="36"/>
+      <c r="BC15" s="36"/>
+      <c r="BD15" s="36"/>
+      <c r="BE15" s="36"/>
+      <c r="BF15" s="36"/>
+      <c r="BG15" s="36"/>
+      <c r="BH15" s="36"/>
+      <c r="BI15" s="36"/>
+      <c r="BJ15" s="36"/>
+      <c r="BK15" s="36"/>
+      <c r="BL15" s="36"/>
+      <c r="BM15" s="36"/>
+      <c r="BN15" s="36"/>
+    </row>
+    <row r="16" spans="1:150" s="32" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A16" s="93" t="str">
-        <f t="shared" si="8"/>
-        <v>1.8</v>
-      </c>
-      <c r="B16" s="89" t="s">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>2.1</v>
+      </c>
+      <c r="B16" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="C16" s="90"/>
-      <c r="D16" s="91"/>
+      <c r="D16" s="33"/>
       <c r="E16" s="88">
-        <v>43136</v>
+        <v>44852</v>
       </c>
       <c r="F16" s="85">
-        <f t="shared" si="11"/>
-        <v>43143</v>
+        <f t="shared" ref="F16:F18" si="13">IF(ISBLANK(E16)," - ",IF(G16=0,E16,E16+G16-1))</f>
+        <v>44857</v>
       </c>
       <c r="G16" s="45">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H16" s="46">
         <v>0</v>
       </c>
       <c r="I16" s="104">
-        <f t="shared" si="12"/>
-        <v>6</v>
+        <f>IF(OR(F16=0,E16=0),0,NETWORKDAYS(E16,F16))</f>
+        <v>4</v>
       </c>
       <c r="J16" s="96"/>
       <c r="K16" s="34"/>
@@ -5770,32 +5789,32 @@
       <c r="BM16" s="34"/>
       <c r="BN16" s="34"/>
     </row>
-    <row r="17" spans="1:66" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:72" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A17" s="93" t="str">
-        <f t="shared" si="8"/>
-        <v>1.9</v>
-      </c>
-      <c r="B17" s="89" t="s">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>2.2</v>
+      </c>
+      <c r="B17" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="C17" s="90"/>
-      <c r="D17" s="91"/>
+      <c r="D17" s="33"/>
       <c r="E17" s="88">
-        <v>43137</v>
+        <f>F16</f>
+        <v>44857</v>
       </c>
       <c r="F17" s="85">
-        <f t="shared" si="11"/>
-        <v>43145</v>
+        <f t="shared" si="13"/>
+        <v>44862</v>
       </c>
       <c r="G17" s="45">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H17" s="46">
         <v>0</v>
       </c>
       <c r="I17" s="104">
-        <f t="shared" si="12"/>
-        <v>7</v>
+        <f>IF(OR(F17=0,E17=0),0,NETWORKDAYS(E17,F17))</f>
+        <v>5</v>
       </c>
       <c r="J17" s="96"/>
       <c r="K17" s="34"/>
@@ -5855,105 +5874,118 @@
       <c r="BM17" s="34"/>
       <c r="BN17" s="34"/>
     </row>
-    <row r="18" spans="1:66" s="31" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="94" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>2</v>
-      </c>
-      <c r="B18" s="81" t="s">
-        <v>131</v>
-      </c>
-      <c r="D18" s="36"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="105"/>
-      <c r="J18" s="97"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="36"/>
-      <c r="U18" s="36"/>
-      <c r="V18" s="36"/>
-      <c r="W18" s="36"/>
-      <c r="X18" s="36"/>
-      <c r="Y18" s="36"/>
-      <c r="Z18" s="36"/>
-      <c r="AA18" s="36"/>
-      <c r="AB18" s="36"/>
-      <c r="AC18" s="36"/>
-      <c r="AD18" s="36"/>
-      <c r="AE18" s="36"/>
-      <c r="AF18" s="36"/>
-      <c r="AG18" s="36"/>
-      <c r="AH18" s="36"/>
-      <c r="AI18" s="36"/>
-      <c r="AJ18" s="36"/>
-      <c r="AK18" s="36"/>
-      <c r="AL18" s="36"/>
-      <c r="AM18" s="36"/>
-      <c r="AN18" s="36"/>
-      <c r="AO18" s="36"/>
-      <c r="AP18" s="36"/>
-      <c r="AQ18" s="36"/>
-      <c r="AR18" s="36"/>
-      <c r="AS18" s="36"/>
-      <c r="AT18" s="36"/>
-      <c r="AU18" s="36"/>
-      <c r="AV18" s="36"/>
-      <c r="AW18" s="36"/>
-      <c r="AX18" s="36"/>
-      <c r="AY18" s="36"/>
-      <c r="AZ18" s="36"/>
-      <c r="BA18" s="36"/>
-      <c r="BB18" s="36"/>
-      <c r="BC18" s="36"/>
-      <c r="BD18" s="36"/>
-      <c r="BE18" s="36"/>
-      <c r="BF18" s="36"/>
-      <c r="BG18" s="36"/>
-      <c r="BH18" s="36"/>
-      <c r="BI18" s="36"/>
-      <c r="BJ18" s="36"/>
-      <c r="BK18" s="36"/>
-      <c r="BL18" s="36"/>
-      <c r="BM18" s="36"/>
-      <c r="BN18" s="36"/>
-    </row>
-    <row r="19" spans="1:66" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="93" t="str">
+    <row r="18" spans="1:72" s="32" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+      <c r="A18" s="93" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.1</v>
+        <v>2.3</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" s="33"/>
+      <c r="E18" s="88">
+        <f>F17</f>
+        <v>44862</v>
+      </c>
+      <c r="F18" s="85">
+        <f t="shared" si="13"/>
+        <v>44867</v>
+      </c>
+      <c r="G18" s="45">
+        <v>6</v>
+      </c>
+      <c r="H18" s="46">
+        <v>0</v>
+      </c>
+      <c r="I18" s="104">
+        <f>IF(OR(F18=0,E18=0),0,NETWORKDAYS(E18,F18))</f>
+        <v>4</v>
+      </c>
+      <c r="J18" s="96"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="34"/>
+      <c r="Y18" s="34"/>
+      <c r="Z18" s="34"/>
+      <c r="AA18" s="34"/>
+      <c r="AB18" s="34"/>
+      <c r="AC18" s="34"/>
+      <c r="AD18" s="34"/>
+      <c r="AE18" s="34"/>
+      <c r="AF18" s="34"/>
+      <c r="AG18" s="34"/>
+      <c r="AH18" s="34"/>
+      <c r="AI18" s="34"/>
+      <c r="AJ18" s="34"/>
+      <c r="AK18" s="34"/>
+      <c r="AL18" s="34"/>
+      <c r="AM18" s="34"/>
+      <c r="AN18" s="34"/>
+      <c r="AO18" s="34"/>
+      <c r="AP18" s="34"/>
+      <c r="AQ18" s="34"/>
+      <c r="AR18" s="34"/>
+      <c r="AS18" s="34"/>
+      <c r="AT18" s="34"/>
+      <c r="AU18" s="34"/>
+      <c r="AV18" s="34"/>
+      <c r="AW18" s="34"/>
+      <c r="AX18" s="34"/>
+      <c r="AY18" s="34"/>
+      <c r="AZ18" s="34"/>
+      <c r="BA18" s="34"/>
+      <c r="BB18" s="34"/>
+      <c r="BC18" s="34"/>
+      <c r="BD18" s="34"/>
+      <c r="BE18" s="34"/>
+      <c r="BF18" s="34"/>
+      <c r="BG18" s="34"/>
+      <c r="BH18" s="34"/>
+      <c r="BI18" s="34"/>
+      <c r="BJ18" s="34"/>
+      <c r="BK18" s="34"/>
+      <c r="BL18" s="34"/>
+      <c r="BM18" s="34"/>
+      <c r="BN18" s="34"/>
+    </row>
+    <row r="19" spans="1:72" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A19" s="93">
+        <v>2.4</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="33"/>
+        <v>151</v>
+      </c>
+      <c r="D19" s="180"/>
       <c r="E19" s="88">
-        <v>43141</v>
+        <f>F18</f>
+        <v>44867</v>
       </c>
       <c r="F19" s="85">
-        <f t="shared" ref="F19:F23" si="13">IF(ISBLANK(E19)," - ",IF(G19=0,E19,E19+G19-1))</f>
-        <v>43144</v>
+        <f t="shared" ref="F19" si="14">IF(ISBLANK(E19)," - ",IF(G19=0,E19,E19+G19-1))</f>
+        <v>44872</v>
       </c>
       <c r="G19" s="45">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H19" s="46">
         <v>0</v>
       </c>
       <c r="I19" s="104">
         <f>IF(OR(F19=0,E19=0),0,NETWORKDAYS(E19,F19))</f>
-        <v>2</v>
-      </c>
-      <c r="J19" s="96"/>
+        <v>4</v>
+      </c>
+      <c r="J19" s="141"/>
       <c r="K19" s="34"/>
       <c r="L19" s="34"/>
       <c r="M19" s="34"/>
@@ -6011,115 +6043,103 @@
       <c r="BM19" s="34"/>
       <c r="BN19" s="34"/>
     </row>
-    <row r="20" spans="1:66" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" s="93" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.2</v>
-      </c>
-      <c r="B20" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="33"/>
-      <c r="E20" s="88">
-        <v>43145</v>
-      </c>
-      <c r="F20" s="85">
-        <f t="shared" si="13"/>
-        <v>43147</v>
-      </c>
-      <c r="G20" s="45">
+    <row r="20" spans="1:72" s="31" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A20" s="94" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>3</v>
       </c>
-      <c r="H20" s="46">
-        <v>0</v>
-      </c>
-      <c r="I20" s="104">
-        <f>IF(OR(F20=0,E20=0),0,NETWORKDAYS(E20,F20))</f>
-        <v>3</v>
-      </c>
-      <c r="J20" s="96"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="34"/>
-      <c r="W20" s="34"/>
-      <c r="X20" s="34"/>
-      <c r="Y20" s="34"/>
-      <c r="Z20" s="34"/>
-      <c r="AA20" s="34"/>
-      <c r="AB20" s="34"/>
-      <c r="AC20" s="34"/>
-      <c r="AD20" s="34"/>
-      <c r="AE20" s="34"/>
-      <c r="AF20" s="34"/>
-      <c r="AG20" s="34"/>
-      <c r="AH20" s="34"/>
-      <c r="AI20" s="34"/>
-      <c r="AJ20" s="34"/>
-      <c r="AK20" s="34"/>
-      <c r="AL20" s="34"/>
-      <c r="AM20" s="34"/>
-      <c r="AN20" s="34"/>
-      <c r="AO20" s="34"/>
-      <c r="AP20" s="34"/>
-      <c r="AQ20" s="34"/>
-      <c r="AR20" s="34"/>
-      <c r="AS20" s="34"/>
-      <c r="AT20" s="34"/>
-      <c r="AU20" s="34"/>
-      <c r="AV20" s="34"/>
-      <c r="AW20" s="34"/>
-      <c r="AX20" s="34"/>
-      <c r="AY20" s="34"/>
-      <c r="AZ20" s="34"/>
-      <c r="BA20" s="34"/>
-      <c r="BB20" s="34"/>
-      <c r="BC20" s="34"/>
-      <c r="BD20" s="34"/>
-      <c r="BE20" s="34"/>
-      <c r="BF20" s="34"/>
-      <c r="BG20" s="34"/>
-      <c r="BH20" s="34"/>
-      <c r="BI20" s="34"/>
-      <c r="BJ20" s="34"/>
-      <c r="BK20" s="34"/>
-      <c r="BL20" s="34"/>
-      <c r="BM20" s="34"/>
-      <c r="BN20" s="34"/>
-    </row>
-    <row r="21" spans="1:66" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B20" s="81" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="36"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="105"/>
+      <c r="J20" s="97"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="36"/>
+      <c r="Z20" s="36"/>
+      <c r="AA20" s="36"/>
+      <c r="AB20" s="36"/>
+      <c r="AC20" s="36"/>
+      <c r="AD20" s="36"/>
+      <c r="AE20" s="36"/>
+      <c r="AF20" s="36"/>
+      <c r="AG20" s="36"/>
+      <c r="AH20" s="36"/>
+      <c r="AI20" s="36"/>
+      <c r="AJ20" s="36"/>
+      <c r="AK20" s="36"/>
+      <c r="AL20" s="36"/>
+      <c r="AM20" s="36"/>
+      <c r="AN20" s="36"/>
+      <c r="AO20" s="36"/>
+      <c r="AP20" s="36"/>
+      <c r="AQ20" s="36"/>
+      <c r="AR20" s="36"/>
+      <c r="AS20" s="36"/>
+      <c r="AT20" s="36"/>
+      <c r="AU20" s="36"/>
+      <c r="AV20" s="36"/>
+      <c r="AW20" s="36"/>
+      <c r="AX20" s="36"/>
+      <c r="AY20" s="36"/>
+      <c r="AZ20" s="36"/>
+      <c r="BA20" s="36"/>
+      <c r="BB20" s="36"/>
+      <c r="BC20" s="36"/>
+      <c r="BD20" s="36"/>
+      <c r="BE20" s="36"/>
+      <c r="BF20" s="36"/>
+      <c r="BG20" s="36"/>
+      <c r="BH20" s="36"/>
+      <c r="BI20" s="36"/>
+      <c r="BJ20" s="36"/>
+      <c r="BK20" s="36"/>
+      <c r="BL20" s="36"/>
+      <c r="BM20" s="36"/>
+      <c r="BN20" s="36"/>
+    </row>
+    <row r="21" spans="1:72" s="32" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A21" s="93" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="D21" s="33"/>
       <c r="E21" s="88">
-        <v>43145</v>
+        <v>44873</v>
       </c>
       <c r="F21" s="85">
-        <f t="shared" si="13"/>
-        <v>43147</v>
+        <f t="shared" ref="F21:F22" si="15">IF(ISBLANK(E21)," - ",IF(G21=0,E21,E21+G21-1))</f>
+        <v>44882</v>
       </c>
       <c r="G21" s="45">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H21" s="46">
         <v>0</v>
       </c>
       <c r="I21" s="104">
         <f>IF(OR(F21=0,E21=0),0,NETWORKDAYS(E21,F21))</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J21" s="96"/>
       <c r="K21" s="34"/>
@@ -6179,31 +6199,31 @@
       <c r="BM21" s="34"/>
       <c r="BN21" s="34"/>
     </row>
-    <row r="22" spans="1:66" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:72" s="32" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A22" s="93" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>5</v>
+        <v>146</v>
       </c>
       <c r="D22" s="33"/>
       <c r="E22" s="88">
-        <v>43148</v>
+        <v>44883</v>
       </c>
       <c r="F22" s="85">
-        <f t="shared" si="13"/>
-        <v>43153</v>
+        <f t="shared" si="15"/>
+        <v>44892</v>
       </c>
       <c r="G22" s="45">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H22" s="46">
         <v>0</v>
       </c>
       <c r="I22" s="104">
         <f>IF(OR(F22=0,E22=0),0,NETWORKDAYS(E22,F22))</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J22" s="96"/>
       <c r="K22" s="34"/>
@@ -6263,187 +6283,188 @@
       <c r="BM22" s="34"/>
       <c r="BN22" s="34"/>
     </row>
-    <row r="23" spans="1:66" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A23" s="93" t="str">
+    <row r="23" spans="1:72" s="31" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A23" s="94" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>4</v>
+      </c>
+      <c r="B23" s="81" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" s="36"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="105"/>
+      <c r="J23" s="97"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="36"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="36"/>
+      <c r="Z23" s="36"/>
+      <c r="AA23" s="36"/>
+      <c r="AB23" s="36"/>
+      <c r="AC23" s="36"/>
+      <c r="AD23" s="36"/>
+      <c r="AE23" s="36"/>
+      <c r="AF23" s="36"/>
+      <c r="AG23" s="36"/>
+      <c r="AH23" s="36"/>
+      <c r="AI23" s="36"/>
+      <c r="AJ23" s="36"/>
+      <c r="AK23" s="36"/>
+      <c r="AL23" s="36"/>
+      <c r="AM23" s="36"/>
+      <c r="AN23" s="36"/>
+      <c r="AO23" s="36"/>
+      <c r="AP23" s="36"/>
+      <c r="AQ23" s="36"/>
+      <c r="AR23" s="36"/>
+      <c r="AS23" s="36"/>
+      <c r="AT23" s="36"/>
+      <c r="AU23" s="36"/>
+      <c r="AV23" s="36"/>
+      <c r="AW23" s="36"/>
+      <c r="AX23" s="36"/>
+      <c r="AY23" s="36"/>
+      <c r="AZ23" s="36"/>
+      <c r="BA23" s="36"/>
+      <c r="BB23" s="36"/>
+      <c r="BC23" s="36"/>
+      <c r="BD23" s="36"/>
+      <c r="BE23" s="36"/>
+      <c r="BF23" s="36"/>
+      <c r="BG23" s="36"/>
+      <c r="BH23" s="36"/>
+      <c r="BI23" s="36"/>
+      <c r="BJ23" s="36"/>
+      <c r="BK23" s="36"/>
+      <c r="BL23" s="36"/>
+      <c r="BM23" s="36"/>
+      <c r="BN23" s="36"/>
+    </row>
+    <row r="24" spans="1:72" s="32" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+      <c r="A24" s="93" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.5</v>
-      </c>
-      <c r="B23" s="35" t="s">
+        <v>4.1</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="D24" s="33"/>
+      <c r="E24" s="88">
+        <v>44893</v>
+      </c>
+      <c r="F24" s="85">
+        <f>IF(ISBLANK(E24)," - ",IF(G24=H257,E24,E24+G24-1))</f>
+        <v>44899</v>
+      </c>
+      <c r="G24" s="45">
+        <v>7</v>
+      </c>
+      <c r="H24" s="46">
+        <v>0</v>
+      </c>
+      <c r="I24" s="104">
+        <f>IF(OR(F24=0,E24=0),0,NETWORKDAYS(E24,F24))</f>
         <v>5</v>
       </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="88">
-        <v>43154</v>
-      </c>
-      <c r="F23" s="85">
-        <f t="shared" si="13"/>
-        <v>43156</v>
-      </c>
-      <c r="G23" s="45">
-        <v>3</v>
-      </c>
-      <c r="H23" s="46">
-        <v>0</v>
-      </c>
-      <c r="I23" s="104">
-        <f>IF(OR(F23=0,E23=0),0,NETWORKDAYS(E23,F23))</f>
-        <v>1</v>
-      </c>
-      <c r="J23" s="96"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="34"/>
-      <c r="S23" s="34"/>
-      <c r="T23" s="34"/>
-      <c r="U23" s="34"/>
-      <c r="V23" s="34"/>
-      <c r="W23" s="34"/>
-      <c r="X23" s="34"/>
-      <c r="Y23" s="34"/>
-      <c r="Z23" s="34"/>
-      <c r="AA23" s="34"/>
-      <c r="AB23" s="34"/>
-      <c r="AC23" s="34"/>
-      <c r="AD23" s="34"/>
-      <c r="AE23" s="34"/>
-      <c r="AF23" s="34"/>
-      <c r="AG23" s="34"/>
-      <c r="AH23" s="34"/>
-      <c r="AI23" s="34"/>
-      <c r="AJ23" s="34"/>
-      <c r="AK23" s="34"/>
-      <c r="AL23" s="34"/>
-      <c r="AM23" s="34"/>
-      <c r="AN23" s="34"/>
-      <c r="AO23" s="34"/>
-      <c r="AP23" s="34"/>
-      <c r="AQ23" s="34"/>
-      <c r="AR23" s="34"/>
-      <c r="AS23" s="34"/>
-      <c r="AT23" s="34"/>
-      <c r="AU23" s="34"/>
-      <c r="AV23" s="34"/>
-      <c r="AW23" s="34"/>
-      <c r="AX23" s="34"/>
-      <c r="AY23" s="34"/>
-      <c r="AZ23" s="34"/>
-      <c r="BA23" s="34"/>
-      <c r="BB23" s="34"/>
-      <c r="BC23" s="34"/>
-      <c r="BD23" s="34"/>
-      <c r="BE23" s="34"/>
-      <c r="BF23" s="34"/>
-      <c r="BG23" s="34"/>
-      <c r="BH23" s="34"/>
-      <c r="BI23" s="34"/>
-      <c r="BJ23" s="34"/>
-      <c r="BK23" s="34"/>
-      <c r="BL23" s="34"/>
-      <c r="BM23" s="34"/>
-      <c r="BN23" s="34"/>
-    </row>
-    <row r="24" spans="1:66" s="31" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="94" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>3</v>
-      </c>
-      <c r="B24" s="81" t="s">
-        <v>132</v>
-      </c>
-      <c r="D24" s="36"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="105"/>
-      <c r="J24" s="97"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="36"/>
-      <c r="V24" s="36"/>
-      <c r="W24" s="36"/>
-      <c r="X24" s="36"/>
-      <c r="Y24" s="36"/>
-      <c r="Z24" s="36"/>
-      <c r="AA24" s="36"/>
-      <c r="AB24" s="36"/>
-      <c r="AC24" s="36"/>
-      <c r="AD24" s="36"/>
-      <c r="AE24" s="36"/>
-      <c r="AF24" s="36"/>
-      <c r="AG24" s="36"/>
-      <c r="AH24" s="36"/>
-      <c r="AI24" s="36"/>
-      <c r="AJ24" s="36"/>
-      <c r="AK24" s="36"/>
-      <c r="AL24" s="36"/>
-      <c r="AM24" s="36"/>
-      <c r="AN24" s="36"/>
-      <c r="AO24" s="36"/>
-      <c r="AP24" s="36"/>
-      <c r="AQ24" s="36"/>
-      <c r="AR24" s="36"/>
-      <c r="AS24" s="36"/>
-      <c r="AT24" s="36"/>
-      <c r="AU24" s="36"/>
-      <c r="AV24" s="36"/>
-      <c r="AW24" s="36"/>
-      <c r="AX24" s="36"/>
-      <c r="AY24" s="36"/>
-      <c r="AZ24" s="36"/>
-      <c r="BA24" s="36"/>
-      <c r="BB24" s="36"/>
-      <c r="BC24" s="36"/>
-      <c r="BD24" s="36"/>
-      <c r="BE24" s="36"/>
-      <c r="BF24" s="36"/>
-      <c r="BG24" s="36"/>
-      <c r="BH24" s="36"/>
-      <c r="BI24" s="36"/>
-      <c r="BJ24" s="36"/>
-      <c r="BK24" s="36"/>
-      <c r="BL24" s="36"/>
-      <c r="BM24" s="36"/>
-      <c r="BN24" s="36"/>
-    </row>
-    <row r="25" spans="1:66" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="J24" s="96"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="34"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="34"/>
+      <c r="W24" s="34"/>
+      <c r="X24" s="34"/>
+      <c r="Y24" s="34"/>
+      <c r="Z24" s="34"/>
+      <c r="AA24" s="34"/>
+      <c r="AB24" s="34"/>
+      <c r="AC24" s="34"/>
+      <c r="AD24" s="34"/>
+      <c r="AE24" s="34"/>
+      <c r="AF24" s="34"/>
+      <c r="AG24" s="34"/>
+      <c r="AH24" s="34"/>
+      <c r="AI24" s="34"/>
+      <c r="AJ24" s="34"/>
+      <c r="AK24" s="34"/>
+      <c r="AL24" s="34"/>
+      <c r="AM24" s="34"/>
+      <c r="AN24" s="34"/>
+      <c r="AO24" s="34"/>
+      <c r="AP24" s="34"/>
+      <c r="AQ24" s="34"/>
+      <c r="AR24" s="34"/>
+      <c r="AS24" s="34"/>
+      <c r="AT24" s="34"/>
+      <c r="AU24" s="34"/>
+      <c r="AV24" s="34"/>
+      <c r="AW24" s="34"/>
+      <c r="AX24" s="34"/>
+      <c r="AY24" s="34"/>
+      <c r="AZ24" s="34"/>
+      <c r="BA24" s="34"/>
+      <c r="BB24" s="34"/>
+      <c r="BC24" s="34"/>
+      <c r="BD24" s="34"/>
+      <c r="BE24" s="34"/>
+      <c r="BF24" s="34"/>
+      <c r="BG24" s="34"/>
+      <c r="BH24" s="34"/>
+      <c r="BI24" s="34"/>
+      <c r="BJ24" s="34"/>
+      <c r="BK24" s="34"/>
+      <c r="BL24" s="34"/>
+      <c r="BM24" s="34"/>
+      <c r="BN24" s="34"/>
+    </row>
+    <row r="25" spans="1:72" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A25" s="93" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>5</v>
+        <v>147</v>
       </c>
       <c r="D25" s="33"/>
       <c r="E25" s="88">
-        <v>43141</v>
+        <f>F24</f>
+        <v>44899</v>
       </c>
       <c r="F25" s="85">
-        <f t="shared" ref="F25:F29" si="14">IF(ISBLANK(E25)," - ",IF(G25=0,E25,E25+G25-1))</f>
-        <v>43144</v>
+        <f t="shared" ref="F24:F27" si="16">IF(ISBLANK(E25)," - ",IF(G25=0,E25,E25+G25-1))</f>
+        <v>44905</v>
       </c>
       <c r="G25" s="45">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H25" s="46">
         <v>0</v>
       </c>
       <c r="I25" s="104">
         <f>IF(OR(F25=0,E25=0),0,NETWORKDAYS(E25,F25))</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J25" s="96"/>
       <c r="K25" s="34"/>
@@ -6503,31 +6524,32 @@
       <c r="BM25" s="34"/>
       <c r="BN25" s="34"/>
     </row>
-    <row r="26" spans="1:66" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:72" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A26" s="93" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>5</v>
+        <v>148</v>
       </c>
       <c r="D26" s="33"/>
       <c r="E26" s="88">
-        <v>43145</v>
+        <f t="shared" ref="E26:E27" si="17">F25</f>
+        <v>44905</v>
       </c>
       <c r="F26" s="85">
-        <f t="shared" si="14"/>
-        <v>43147</v>
+        <f t="shared" ref="F26:F27" si="18">IF(ISBLANK(E26)," - ",IF(G26=0,E26,E26+G26-1))</f>
+        <v>44911</v>
       </c>
       <c r="G26" s="45">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H26" s="46">
         <v>0</v>
       </c>
       <c r="I26" s="104">
         <f>IF(OR(F26=0,E26=0),0,NETWORKDAYS(E26,F26))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J26" s="96"/>
       <c r="K26" s="34"/>
@@ -6587,31 +6609,32 @@
       <c r="BM26" s="34"/>
       <c r="BN26" s="34"/>
     </row>
-    <row r="27" spans="1:66" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:72" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A27" s="93" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.3</v>
+        <v>4.4</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="D27" s="33"/>
       <c r="E27" s="88">
-        <v>43145</v>
+        <f t="shared" si="17"/>
+        <v>44911</v>
       </c>
       <c r="F27" s="85">
-        <f t="shared" si="14"/>
-        <v>43147</v>
+        <f t="shared" si="18"/>
+        <v>44917</v>
       </c>
       <c r="G27" s="45">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H27" s="46">
         <v>0</v>
       </c>
       <c r="I27" s="104">
         <f>IF(OR(F27=0,E27=0),0,NETWORKDAYS(E27,F27))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J27" s="96"/>
       <c r="K27" s="34"/>
@@ -6671,33 +6694,22 @@
       <c r="BM27" s="34"/>
       <c r="BN27" s="34"/>
     </row>
-    <row r="28" spans="1:66" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A28" s="93" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.4</v>
-      </c>
-      <c r="B28" s="35" t="s">
+    <row r="28" spans="1:72" s="142" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A28" s="94" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>5</v>
       </c>
-      <c r="D28" s="33"/>
-      <c r="E28" s="88">
-        <v>43148</v>
-      </c>
-      <c r="F28" s="85">
-        <f t="shared" si="14"/>
-        <v>43153</v>
-      </c>
-      <c r="G28" s="45">
-        <v>6</v>
-      </c>
-      <c r="H28" s="46">
-        <v>0</v>
-      </c>
-      <c r="I28" s="104">
-        <f>IF(OR(F28=0,E28=0),0,NETWORKDAYS(E28,F28))</f>
-        <v>4</v>
-      </c>
-      <c r="J28" s="96"/>
+      <c r="B28" s="81" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" s="31"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="105"/>
+      <c r="J28" s="141"/>
       <c r="K28" s="34"/>
       <c r="L28" s="34"/>
       <c r="M28" s="34"/>
@@ -6755,24 +6767,25 @@
       <c r="BM28" s="34"/>
       <c r="BN28" s="34"/>
     </row>
-    <row r="29" spans="1:66" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:72" s="39" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A29" s="93" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.5</v>
+        <v>5.1</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>5</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="C29" s="32"/>
       <c r="D29" s="33"/>
       <c r="E29" s="88">
-        <v>43154</v>
+        <v>44918</v>
       </c>
       <c r="F29" s="85">
-        <f t="shared" si="14"/>
-        <v>43156</v>
+        <f t="shared" ref="F29:F32" si="19">IF(ISBLANK(E29)," - ",IF(G29=0,E29,E29+G29-1))</f>
+        <v>44918</v>
       </c>
       <c r="G29" s="45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H29" s="46">
         <v>0</v>
@@ -6781,7 +6794,7 @@
         <f>IF(OR(F29=0,E29=0),0,NETWORKDAYS(E29,F29))</f>
         <v>1</v>
       </c>
-      <c r="J29" s="96"/>
+      <c r="J29" s="141"/>
       <c r="K29" s="34"/>
       <c r="L29" s="34"/>
       <c r="M29" s="34"/>
@@ -6838,94 +6851,114 @@
       <c r="BL29" s="34"/>
       <c r="BM29" s="34"/>
       <c r="BN29" s="34"/>
-    </row>
-    <row r="30" spans="1:66" s="31" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A30" s="94" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>4</v>
-      </c>
-      <c r="B30" s="81" t="s">
-        <v>133</v>
-      </c>
-      <c r="D30" s="36"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="105"/>
-      <c r="J30" s="97"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="36"/>
-      <c r="S30" s="36"/>
-      <c r="T30" s="36"/>
-      <c r="U30" s="36"/>
-      <c r="V30" s="36"/>
-      <c r="W30" s="36"/>
-      <c r="X30" s="36"/>
-      <c r="Y30" s="36"/>
-      <c r="Z30" s="36"/>
-      <c r="AA30" s="36"/>
-      <c r="AB30" s="36"/>
-      <c r="AC30" s="36"/>
-      <c r="AD30" s="36"/>
-      <c r="AE30" s="36"/>
-      <c r="AF30" s="36"/>
-      <c r="AG30" s="36"/>
-      <c r="AH30" s="36"/>
-      <c r="AI30" s="36"/>
-      <c r="AJ30" s="36"/>
-      <c r="AK30" s="36"/>
-      <c r="AL30" s="36"/>
-      <c r="AM30" s="36"/>
-      <c r="AN30" s="36"/>
-      <c r="AO30" s="36"/>
-      <c r="AP30" s="36"/>
-      <c r="AQ30" s="36"/>
-      <c r="AR30" s="36"/>
-      <c r="AS30" s="36"/>
-      <c r="AT30" s="36"/>
-      <c r="AU30" s="36"/>
-      <c r="AV30" s="36"/>
-      <c r="AW30" s="36"/>
-      <c r="AX30" s="36"/>
-      <c r="AY30" s="36"/>
-      <c r="AZ30" s="36"/>
-      <c r="BA30" s="36"/>
-      <c r="BB30" s="36"/>
-      <c r="BC30" s="36"/>
-      <c r="BD30" s="36"/>
-      <c r="BE30" s="36"/>
-      <c r="BF30" s="36"/>
-      <c r="BG30" s="36"/>
-      <c r="BH30" s="36"/>
-      <c r="BI30" s="36"/>
-      <c r="BJ30" s="36"/>
-      <c r="BK30" s="36"/>
-      <c r="BL30" s="36"/>
-      <c r="BM30" s="36"/>
-      <c r="BN30" s="36"/>
-    </row>
-    <row r="31" spans="1:66" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="BO29" s="142"/>
+      <c r="BP29" s="142"/>
+      <c r="BQ29" s="142"/>
+      <c r="BR29" s="142"/>
+      <c r="BS29" s="142"/>
+      <c r="BT29" s="142"/>
+    </row>
+    <row r="30" spans="1:72" s="39" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="A30" s="93" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>5.2</v>
+      </c>
+      <c r="B30" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="C30" s="32"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="88">
+        <v>44919</v>
+      </c>
+      <c r="F30" s="85">
+        <f t="shared" si="19"/>
+        <v>44919</v>
+      </c>
+      <c r="G30" s="45">
+        <v>1</v>
+      </c>
+      <c r="H30" s="46">
+        <v>0</v>
+      </c>
+      <c r="I30" s="104">
+        <f>IF(OR(F30=0,E30=0),0,NETWORKDAYS(E30,F30))</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="98"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="34"/>
+      <c r="S30" s="34"/>
+      <c r="T30" s="34"/>
+      <c r="U30" s="34"/>
+      <c r="V30" s="34"/>
+      <c r="W30" s="34"/>
+      <c r="X30" s="34"/>
+      <c r="Y30" s="34"/>
+      <c r="Z30" s="34"/>
+      <c r="AA30" s="34"/>
+      <c r="AB30" s="34"/>
+      <c r="AC30" s="34"/>
+      <c r="AD30" s="34"/>
+      <c r="AE30" s="34"/>
+      <c r="AF30" s="34"/>
+      <c r="AG30" s="34"/>
+      <c r="AH30" s="34"/>
+      <c r="AI30" s="34"/>
+      <c r="AJ30" s="34"/>
+      <c r="AK30" s="34"/>
+      <c r="AL30" s="34"/>
+      <c r="AM30" s="34"/>
+      <c r="AN30" s="34"/>
+      <c r="AO30" s="34"/>
+      <c r="AP30" s="34"/>
+      <c r="AQ30" s="34"/>
+      <c r="AR30" s="34"/>
+      <c r="AS30" s="34"/>
+      <c r="AT30" s="34"/>
+      <c r="AU30" s="34"/>
+      <c r="AV30" s="34"/>
+      <c r="AW30" s="34"/>
+      <c r="AX30" s="34"/>
+      <c r="AY30" s="34"/>
+      <c r="AZ30" s="34"/>
+      <c r="BA30" s="34"/>
+      <c r="BB30" s="34"/>
+      <c r="BC30" s="34"/>
+      <c r="BD30" s="34"/>
+      <c r="BE30" s="34"/>
+      <c r="BF30" s="34"/>
+      <c r="BG30" s="34"/>
+      <c r="BH30" s="34"/>
+      <c r="BI30" s="34"/>
+      <c r="BJ30" s="34"/>
+      <c r="BK30" s="34"/>
+      <c r="BL30" s="34"/>
+      <c r="BM30" s="34"/>
+      <c r="BN30" s="34"/>
+    </row>
+    <row r="31" spans="1:72" s="40" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="93" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.1</v>
+        <v>5.3</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>5</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C31" s="32"/>
       <c r="D31" s="33"/>
       <c r="E31" s="88">
-        <v>43129</v>
+        <v>44920</v>
       </c>
       <c r="F31" s="85">
-        <f t="shared" ref="F31:F35" si="15">IF(ISBLANK(E31)," - ",IF(G31=0,E31,E31+G31-1))</f>
-        <v>43129</v>
+        <f t="shared" si="19"/>
+        <v>44920</v>
       </c>
       <c r="G31" s="45">
         <v>1</v>
@@ -6935,9 +6968,9 @@
       </c>
       <c r="I31" s="104">
         <f>IF(OR(F31=0,E31=0),0,NETWORKDAYS(E31,F31))</f>
-        <v>1</v>
-      </c>
-      <c r="J31" s="96"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="48"/>
       <c r="K31" s="34"/>
       <c r="L31" s="34"/>
       <c r="M31" s="34"/>
@@ -6995,21 +7028,22 @@
       <c r="BM31" s="34"/>
       <c r="BN31" s="34"/>
     </row>
-    <row r="32" spans="1:66" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:72" s="39" customFormat="1" ht="19" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A32" s="93" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.2</v>
+        <v>5.4</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>5</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="C32" s="32"/>
       <c r="D32" s="33"/>
       <c r="E32" s="88">
-        <v>43130</v>
+        <v>44921</v>
       </c>
       <c r="F32" s="85">
-        <f t="shared" si="15"/>
-        <v>43130</v>
+        <f t="shared" si="19"/>
+        <v>44921</v>
       </c>
       <c r="G32" s="45">
         <v>1</v>
@@ -7021,7 +7055,7 @@
         <f>IF(OR(F32=0,E32=0),0,NETWORKDAYS(E32,F32))</f>
         <v>1</v>
       </c>
-      <c r="J32" s="96"/>
+      <c r="J32" s="107"/>
       <c r="K32" s="34"/>
       <c r="L32" s="34"/>
       <c r="M32" s="34"/>
@@ -7079,985 +7113,17 @@
       <c r="BM32" s="34"/>
       <c r="BN32" s="34"/>
     </row>
-    <row r="33" spans="1:72" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A33" s="93" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.3</v>
-      </c>
-      <c r="B33" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="33"/>
-      <c r="E33" s="88">
-        <v>43131</v>
-      </c>
-      <c r="F33" s="85">
-        <f t="shared" si="15"/>
-        <v>43131</v>
-      </c>
-      <c r="G33" s="45">
-        <v>1</v>
-      </c>
-      <c r="H33" s="46">
-        <v>0</v>
-      </c>
-      <c r="I33" s="104">
-        <f>IF(OR(F33=0,E33=0),0,NETWORKDAYS(E33,F33))</f>
-        <v>1</v>
-      </c>
-      <c r="J33" s="96"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="34"/>
-      <c r="P33" s="34"/>
-      <c r="Q33" s="34"/>
-      <c r="R33" s="34"/>
-      <c r="S33" s="34"/>
-      <c r="T33" s="34"/>
-      <c r="U33" s="34"/>
-      <c r="V33" s="34"/>
-      <c r="W33" s="34"/>
-      <c r="X33" s="34"/>
-      <c r="Y33" s="34"/>
-      <c r="Z33" s="34"/>
-      <c r="AA33" s="34"/>
-      <c r="AB33" s="34"/>
-      <c r="AC33" s="34"/>
-      <c r="AD33" s="34"/>
-      <c r="AE33" s="34"/>
-      <c r="AF33" s="34"/>
-      <c r="AG33" s="34"/>
-      <c r="AH33" s="34"/>
-      <c r="AI33" s="34"/>
-      <c r="AJ33" s="34"/>
-      <c r="AK33" s="34"/>
-      <c r="AL33" s="34"/>
-      <c r="AM33" s="34"/>
-      <c r="AN33" s="34"/>
-      <c r="AO33" s="34"/>
-      <c r="AP33" s="34"/>
-      <c r="AQ33" s="34"/>
-      <c r="AR33" s="34"/>
-      <c r="AS33" s="34"/>
-      <c r="AT33" s="34"/>
-      <c r="AU33" s="34"/>
-      <c r="AV33" s="34"/>
-      <c r="AW33" s="34"/>
-      <c r="AX33" s="34"/>
-      <c r="AY33" s="34"/>
-      <c r="AZ33" s="34"/>
-      <c r="BA33" s="34"/>
-      <c r="BB33" s="34"/>
-      <c r="BC33" s="34"/>
-      <c r="BD33" s="34"/>
-      <c r="BE33" s="34"/>
-      <c r="BF33" s="34"/>
-      <c r="BG33" s="34"/>
-      <c r="BH33" s="34"/>
-      <c r="BI33" s="34"/>
-      <c r="BJ33" s="34"/>
-      <c r="BK33" s="34"/>
-      <c r="BL33" s="34"/>
-      <c r="BM33" s="34"/>
-      <c r="BN33" s="34"/>
-    </row>
-    <row r="34" spans="1:72" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A34" s="93" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.4</v>
-      </c>
-      <c r="B34" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="33"/>
-      <c r="E34" s="88">
-        <v>43132</v>
-      </c>
-      <c r="F34" s="85">
-        <f t="shared" si="15"/>
-        <v>43132</v>
-      </c>
-      <c r="G34" s="45">
-        <v>1</v>
-      </c>
-      <c r="H34" s="46">
-        <v>0</v>
-      </c>
-      <c r="I34" s="104">
-        <f>IF(OR(F34=0,E34=0),0,NETWORKDAYS(E34,F34))</f>
-        <v>1</v>
-      </c>
-      <c r="J34" s="96"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="34"/>
-      <c r="O34" s="34"/>
-      <c r="P34" s="34"/>
-      <c r="Q34" s="34"/>
-      <c r="R34" s="34"/>
-      <c r="S34" s="34"/>
-      <c r="T34" s="34"/>
-      <c r="U34" s="34"/>
-      <c r="V34" s="34"/>
-      <c r="W34" s="34"/>
-      <c r="X34" s="34"/>
-      <c r="Y34" s="34"/>
-      <c r="Z34" s="34"/>
-      <c r="AA34" s="34"/>
-      <c r="AB34" s="34"/>
-      <c r="AC34" s="34"/>
-      <c r="AD34" s="34"/>
-      <c r="AE34" s="34"/>
-      <c r="AF34" s="34"/>
-      <c r="AG34" s="34"/>
-      <c r="AH34" s="34"/>
-      <c r="AI34" s="34"/>
-      <c r="AJ34" s="34"/>
-      <c r="AK34" s="34"/>
-      <c r="AL34" s="34"/>
-      <c r="AM34" s="34"/>
-      <c r="AN34" s="34"/>
-      <c r="AO34" s="34"/>
-      <c r="AP34" s="34"/>
-      <c r="AQ34" s="34"/>
-      <c r="AR34" s="34"/>
-      <c r="AS34" s="34"/>
-      <c r="AT34" s="34"/>
-      <c r="AU34" s="34"/>
-      <c r="AV34" s="34"/>
-      <c r="AW34" s="34"/>
-      <c r="AX34" s="34"/>
-      <c r="AY34" s="34"/>
-      <c r="AZ34" s="34"/>
-      <c r="BA34" s="34"/>
-      <c r="BB34" s="34"/>
-      <c r="BC34" s="34"/>
-      <c r="BD34" s="34"/>
-      <c r="BE34" s="34"/>
-      <c r="BF34" s="34"/>
-      <c r="BG34" s="34"/>
-      <c r="BH34" s="34"/>
-      <c r="BI34" s="34"/>
-      <c r="BJ34" s="34"/>
-      <c r="BK34" s="34"/>
-      <c r="BL34" s="34"/>
-      <c r="BM34" s="34"/>
-      <c r="BN34" s="34"/>
-    </row>
-    <row r="35" spans="1:72" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A35" s="93" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.5</v>
-      </c>
-      <c r="B35" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="33"/>
-      <c r="E35" s="88">
-        <v>43133</v>
-      </c>
-      <c r="F35" s="85">
-        <f t="shared" si="15"/>
-        <v>43133</v>
-      </c>
-      <c r="G35" s="45">
-        <v>1</v>
-      </c>
-      <c r="H35" s="46">
-        <v>0</v>
-      </c>
-      <c r="I35" s="104">
-        <f>IF(OR(F35=0,E35=0),0,NETWORKDAYS(E35,F35))</f>
-        <v>1</v>
-      </c>
-      <c r="J35" s="96"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="34"/>
-      <c r="O35" s="34"/>
-      <c r="P35" s="34"/>
-      <c r="Q35" s="34"/>
-      <c r="R35" s="34"/>
-      <c r="S35" s="34"/>
-      <c r="T35" s="34"/>
-      <c r="U35" s="34"/>
-      <c r="V35" s="34"/>
-      <c r="W35" s="34"/>
-      <c r="X35" s="34"/>
-      <c r="Y35" s="34"/>
-      <c r="Z35" s="34"/>
-      <c r="AA35" s="34"/>
-      <c r="AB35" s="34"/>
-      <c r="AC35" s="34"/>
-      <c r="AD35" s="34"/>
-      <c r="AE35" s="34"/>
-      <c r="AF35" s="34"/>
-      <c r="AG35" s="34"/>
-      <c r="AH35" s="34"/>
-      <c r="AI35" s="34"/>
-      <c r="AJ35" s="34"/>
-      <c r="AK35" s="34"/>
-      <c r="AL35" s="34"/>
-      <c r="AM35" s="34"/>
-      <c r="AN35" s="34"/>
-      <c r="AO35" s="34"/>
-      <c r="AP35" s="34"/>
-      <c r="AQ35" s="34"/>
-      <c r="AR35" s="34"/>
-      <c r="AS35" s="34"/>
-      <c r="AT35" s="34"/>
-      <c r="AU35" s="34"/>
-      <c r="AV35" s="34"/>
-      <c r="AW35" s="34"/>
-      <c r="AX35" s="34"/>
-      <c r="AY35" s="34"/>
-      <c r="AZ35" s="34"/>
-      <c r="BA35" s="34"/>
-      <c r="BB35" s="34"/>
-      <c r="BC35" s="34"/>
-      <c r="BD35" s="34"/>
-      <c r="BE35" s="34"/>
-      <c r="BF35" s="34"/>
-      <c r="BG35" s="34"/>
-      <c r="BH35" s="34"/>
-      <c r="BI35" s="34"/>
-      <c r="BJ35" s="34"/>
-      <c r="BK35" s="34"/>
-      <c r="BL35" s="34"/>
-      <c r="BM35" s="34"/>
-      <c r="BN35" s="34"/>
-    </row>
-    <row r="36" spans="1:72" s="179" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A36" s="94" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>5</v>
-      </c>
-      <c r="B36" s="81" t="s">
-        <v>134</v>
-      </c>
-      <c r="C36" s="31"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="86"/>
-      <c r="F36" s="87"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="105"/>
-      <c r="J36" s="178"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="34"/>
-      <c r="O36" s="34"/>
-      <c r="P36" s="34"/>
-      <c r="Q36" s="34"/>
-      <c r="R36" s="34"/>
-      <c r="S36" s="34"/>
-      <c r="T36" s="34"/>
-      <c r="U36" s="34"/>
-      <c r="V36" s="34"/>
-      <c r="W36" s="34"/>
-      <c r="X36" s="34"/>
-      <c r="Y36" s="34"/>
-      <c r="Z36" s="34"/>
-      <c r="AA36" s="34"/>
-      <c r="AB36" s="34"/>
-      <c r="AC36" s="34"/>
-      <c r="AD36" s="34"/>
-      <c r="AE36" s="34"/>
-      <c r="AF36" s="34"/>
-      <c r="AG36" s="34"/>
-      <c r="AH36" s="34"/>
-      <c r="AI36" s="34"/>
-      <c r="AJ36" s="34"/>
-      <c r="AK36" s="34"/>
-      <c r="AL36" s="34"/>
-      <c r="AM36" s="34"/>
-      <c r="AN36" s="34"/>
-      <c r="AO36" s="34"/>
-      <c r="AP36" s="34"/>
-      <c r="AQ36" s="34"/>
-      <c r="AR36" s="34"/>
-      <c r="AS36" s="34"/>
-      <c r="AT36" s="34"/>
-      <c r="AU36" s="34"/>
-      <c r="AV36" s="34"/>
-      <c r="AW36" s="34"/>
-      <c r="AX36" s="34"/>
-      <c r="AY36" s="34"/>
-      <c r="AZ36" s="34"/>
-      <c r="BA36" s="34"/>
-      <c r="BB36" s="34"/>
-      <c r="BC36" s="34"/>
-      <c r="BD36" s="34"/>
-      <c r="BE36" s="34"/>
-      <c r="BF36" s="34"/>
-      <c r="BG36" s="34"/>
-      <c r="BH36" s="34"/>
-      <c r="BI36" s="34"/>
-      <c r="BJ36" s="34"/>
-      <c r="BK36" s="34"/>
-      <c r="BL36" s="34"/>
-      <c r="BM36" s="34"/>
-      <c r="BN36" s="34"/>
-    </row>
-    <row r="37" spans="1:72" s="39" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A37" s="93" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>5.1</v>
-      </c>
-      <c r="B37" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="32"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="88">
-        <v>43129</v>
-      </c>
-      <c r="F37" s="85">
-        <f t="shared" ref="F37:F41" si="16">IF(ISBLANK(E37)," - ",IF(G37=0,E37,E37+G37-1))</f>
-        <v>43129</v>
-      </c>
-      <c r="G37" s="45">
-        <v>1</v>
-      </c>
-      <c r="H37" s="46">
-        <v>0</v>
-      </c>
-      <c r="I37" s="104">
-        <f>IF(OR(F37=0,E37=0),0,NETWORKDAYS(E37,F37))</f>
-        <v>1</v>
-      </c>
-      <c r="J37" s="178"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="34"/>
-      <c r="P37" s="34"/>
-      <c r="Q37" s="34"/>
-      <c r="R37" s="34"/>
-      <c r="S37" s="34"/>
-      <c r="T37" s="34"/>
-      <c r="U37" s="34"/>
-      <c r="V37" s="34"/>
-      <c r="W37" s="34"/>
-      <c r="X37" s="34"/>
-      <c r="Y37" s="34"/>
-      <c r="Z37" s="34"/>
-      <c r="AA37" s="34"/>
-      <c r="AB37" s="34"/>
-      <c r="AC37" s="34"/>
-      <c r="AD37" s="34"/>
-      <c r="AE37" s="34"/>
-      <c r="AF37" s="34"/>
-      <c r="AG37" s="34"/>
-      <c r="AH37" s="34"/>
-      <c r="AI37" s="34"/>
-      <c r="AJ37" s="34"/>
-      <c r="AK37" s="34"/>
-      <c r="AL37" s="34"/>
-      <c r="AM37" s="34"/>
-      <c r="AN37" s="34"/>
-      <c r="AO37" s="34"/>
-      <c r="AP37" s="34"/>
-      <c r="AQ37" s="34"/>
-      <c r="AR37" s="34"/>
-      <c r="AS37" s="34"/>
-      <c r="AT37" s="34"/>
-      <c r="AU37" s="34"/>
-      <c r="AV37" s="34"/>
-      <c r="AW37" s="34"/>
-      <c r="AX37" s="34"/>
-      <c r="AY37" s="34"/>
-      <c r="AZ37" s="34"/>
-      <c r="BA37" s="34"/>
-      <c r="BB37" s="34"/>
-      <c r="BC37" s="34"/>
-      <c r="BD37" s="34"/>
-      <c r="BE37" s="34"/>
-      <c r="BF37" s="34"/>
-      <c r="BG37" s="34"/>
-      <c r="BH37" s="34"/>
-      <c r="BI37" s="34"/>
-      <c r="BJ37" s="34"/>
-      <c r="BK37" s="34"/>
-      <c r="BL37" s="34"/>
-      <c r="BM37" s="34"/>
-      <c r="BN37" s="34"/>
-      <c r="BO37" s="179"/>
-      <c r="BP37" s="179"/>
-      <c r="BQ37" s="179"/>
-      <c r="BR37" s="179"/>
-      <c r="BS37" s="179"/>
-      <c r="BT37" s="179"/>
-    </row>
-    <row r="38" spans="1:72" s="39" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A38" s="93" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>5.2</v>
-      </c>
-      <c r="B38" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="32"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="88">
-        <v>43130</v>
-      </c>
-      <c r="F38" s="85">
-        <f t="shared" si="16"/>
-        <v>43130</v>
-      </c>
-      <c r="G38" s="45">
-        <v>1</v>
-      </c>
-      <c r="H38" s="46">
-        <v>0</v>
-      </c>
-      <c r="I38" s="104">
-        <f>IF(OR(F38=0,E38=0),0,NETWORKDAYS(E38,F38))</f>
-        <v>1</v>
-      </c>
-      <c r="J38" s="98"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="34"/>
-      <c r="O38" s="34"/>
-      <c r="P38" s="34"/>
-      <c r="Q38" s="34"/>
-      <c r="R38" s="34"/>
-      <c r="S38" s="34"/>
-      <c r="T38" s="34"/>
-      <c r="U38" s="34"/>
-      <c r="V38" s="34"/>
-      <c r="W38" s="34"/>
-      <c r="X38" s="34"/>
-      <c r="Y38" s="34"/>
-      <c r="Z38" s="34"/>
-      <c r="AA38" s="34"/>
-      <c r="AB38" s="34"/>
-      <c r="AC38" s="34"/>
-      <c r="AD38" s="34"/>
-      <c r="AE38" s="34"/>
-      <c r="AF38" s="34"/>
-      <c r="AG38" s="34"/>
-      <c r="AH38" s="34"/>
-      <c r="AI38" s="34"/>
-      <c r="AJ38" s="34"/>
-      <c r="AK38" s="34"/>
-      <c r="AL38" s="34"/>
-      <c r="AM38" s="34"/>
-      <c r="AN38" s="34"/>
-      <c r="AO38" s="34"/>
-      <c r="AP38" s="34"/>
-      <c r="AQ38" s="34"/>
-      <c r="AR38" s="34"/>
-      <c r="AS38" s="34"/>
-      <c r="AT38" s="34"/>
-      <c r="AU38" s="34"/>
-      <c r="AV38" s="34"/>
-      <c r="AW38" s="34"/>
-      <c r="AX38" s="34"/>
-      <c r="AY38" s="34"/>
-      <c r="AZ38" s="34"/>
-      <c r="BA38" s="34"/>
-      <c r="BB38" s="34"/>
-      <c r="BC38" s="34"/>
-      <c r="BD38" s="34"/>
-      <c r="BE38" s="34"/>
-      <c r="BF38" s="34"/>
-      <c r="BG38" s="34"/>
-      <c r="BH38" s="34"/>
-      <c r="BI38" s="34"/>
-      <c r="BJ38" s="34"/>
-      <c r="BK38" s="34"/>
-      <c r="BL38" s="34"/>
-      <c r="BM38" s="34"/>
-      <c r="BN38" s="34"/>
-    </row>
-    <row r="39" spans="1:72" s="40" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="93" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>5.3</v>
-      </c>
-      <c r="B39" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="32"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="88">
-        <v>43131</v>
-      </c>
-      <c r="F39" s="85">
-        <f t="shared" si="16"/>
-        <v>43131</v>
-      </c>
-      <c r="G39" s="45">
-        <v>1</v>
-      </c>
-      <c r="H39" s="46">
-        <v>0</v>
-      </c>
-      <c r="I39" s="104">
-        <f>IF(OR(F39=0,E39=0),0,NETWORKDAYS(E39,F39))</f>
-        <v>1</v>
-      </c>
-      <c r="J39" s="48"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="34"/>
-      <c r="O39" s="34"/>
-      <c r="P39" s="34"/>
-      <c r="Q39" s="34"/>
-      <c r="R39" s="34"/>
-      <c r="S39" s="34"/>
-      <c r="T39" s="34"/>
-      <c r="U39" s="34"/>
-      <c r="V39" s="34"/>
-      <c r="W39" s="34"/>
-      <c r="X39" s="34"/>
-      <c r="Y39" s="34"/>
-      <c r="Z39" s="34"/>
-      <c r="AA39" s="34"/>
-      <c r="AB39" s="34"/>
-      <c r="AC39" s="34"/>
-      <c r="AD39" s="34"/>
-      <c r="AE39" s="34"/>
-      <c r="AF39" s="34"/>
-      <c r="AG39" s="34"/>
-      <c r="AH39" s="34"/>
-      <c r="AI39" s="34"/>
-      <c r="AJ39" s="34"/>
-      <c r="AK39" s="34"/>
-      <c r="AL39" s="34"/>
-      <c r="AM39" s="34"/>
-      <c r="AN39" s="34"/>
-      <c r="AO39" s="34"/>
-      <c r="AP39" s="34"/>
-      <c r="AQ39" s="34"/>
-      <c r="AR39" s="34"/>
-      <c r="AS39" s="34"/>
-      <c r="AT39" s="34"/>
-      <c r="AU39" s="34"/>
-      <c r="AV39" s="34"/>
-      <c r="AW39" s="34"/>
-      <c r="AX39" s="34"/>
-      <c r="AY39" s="34"/>
-      <c r="AZ39" s="34"/>
-      <c r="BA39" s="34"/>
-      <c r="BB39" s="34"/>
-      <c r="BC39" s="34"/>
-      <c r="BD39" s="34"/>
-      <c r="BE39" s="34"/>
-      <c r="BF39" s="34"/>
-      <c r="BG39" s="34"/>
-      <c r="BH39" s="34"/>
-      <c r="BI39" s="34"/>
-      <c r="BJ39" s="34"/>
-      <c r="BK39" s="34"/>
-      <c r="BL39" s="34"/>
-      <c r="BM39" s="34"/>
-      <c r="BN39" s="34"/>
-    </row>
-    <row r="40" spans="1:72" s="39" customFormat="1" ht="18.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="93" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>5.4</v>
-      </c>
-      <c r="B40" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="32"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="88">
-        <v>43132</v>
-      </c>
-      <c r="F40" s="85">
-        <f t="shared" si="16"/>
-        <v>43132</v>
-      </c>
-      <c r="G40" s="45">
-        <v>1</v>
-      </c>
-      <c r="H40" s="46">
-        <v>0</v>
-      </c>
-      <c r="I40" s="104">
-        <f>IF(OR(F40=0,E40=0),0,NETWORKDAYS(E40,F40))</f>
-        <v>1</v>
-      </c>
-      <c r="J40" s="107"/>
-      <c r="K40" s="34"/>
-      <c r="L40" s="34"/>
-      <c r="M40" s="34"/>
-      <c r="N40" s="34"/>
-      <c r="O40" s="34"/>
-      <c r="P40" s="34"/>
-      <c r="Q40" s="34"/>
-      <c r="R40" s="34"/>
-      <c r="S40" s="34"/>
-      <c r="T40" s="34"/>
-      <c r="U40" s="34"/>
-      <c r="V40" s="34"/>
-      <c r="W40" s="34"/>
-      <c r="X40" s="34"/>
-      <c r="Y40" s="34"/>
-      <c r="Z40" s="34"/>
-      <c r="AA40" s="34"/>
-      <c r="AB40" s="34"/>
-      <c r="AC40" s="34"/>
-      <c r="AD40" s="34"/>
-      <c r="AE40" s="34"/>
-      <c r="AF40" s="34"/>
-      <c r="AG40" s="34"/>
-      <c r="AH40" s="34"/>
-      <c r="AI40" s="34"/>
-      <c r="AJ40" s="34"/>
-      <c r="AK40" s="34"/>
-      <c r="AL40" s="34"/>
-      <c r="AM40" s="34"/>
-      <c r="AN40" s="34"/>
-      <c r="AO40" s="34"/>
-      <c r="AP40" s="34"/>
-      <c r="AQ40" s="34"/>
-      <c r="AR40" s="34"/>
-      <c r="AS40" s="34"/>
-      <c r="AT40" s="34"/>
-      <c r="AU40" s="34"/>
-      <c r="AV40" s="34"/>
-      <c r="AW40" s="34"/>
-      <c r="AX40" s="34"/>
-      <c r="AY40" s="34"/>
-      <c r="AZ40" s="34"/>
-      <c r="BA40" s="34"/>
-      <c r="BB40" s="34"/>
-      <c r="BC40" s="34"/>
-      <c r="BD40" s="34"/>
-      <c r="BE40" s="34"/>
-      <c r="BF40" s="34"/>
-      <c r="BG40" s="34"/>
-      <c r="BH40" s="34"/>
-      <c r="BI40" s="34"/>
-      <c r="BJ40" s="34"/>
-      <c r="BK40" s="34"/>
-      <c r="BL40" s="34"/>
-      <c r="BM40" s="34"/>
-      <c r="BN40" s="34"/>
-    </row>
-    <row r="41" spans="1:72" s="39" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A41" s="93" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>5.5</v>
-      </c>
-      <c r="B41" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="32"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="88">
-        <v>43133</v>
-      </c>
-      <c r="F41" s="85">
-        <f t="shared" si="16"/>
-        <v>43133</v>
-      </c>
-      <c r="G41" s="45">
-        <v>1</v>
-      </c>
-      <c r="H41" s="46">
-        <v>0</v>
-      </c>
-      <c r="I41" s="104">
-        <f>IF(OR(F41=0,E41=0),0,NETWORKDAYS(E41,F41))</f>
-        <v>1</v>
-      </c>
-      <c r="J41" s="97"/>
-      <c r="K41" s="34"/>
-      <c r="L41" s="34"/>
-      <c r="M41" s="34"/>
-      <c r="N41" s="34"/>
-      <c r="O41" s="34"/>
-      <c r="P41" s="34"/>
-      <c r="Q41" s="34"/>
-      <c r="R41" s="34"/>
-      <c r="S41" s="34"/>
-      <c r="T41" s="34"/>
-      <c r="U41" s="34"/>
-      <c r="V41" s="34"/>
-      <c r="W41" s="34"/>
-      <c r="X41" s="34"/>
-      <c r="Y41" s="34"/>
-      <c r="Z41" s="34"/>
-      <c r="AA41" s="34"/>
-      <c r="AB41" s="34"/>
-      <c r="AC41" s="34"/>
-      <c r="AD41" s="34"/>
-      <c r="AE41" s="34"/>
-      <c r="AF41" s="34"/>
-      <c r="AG41" s="34"/>
-      <c r="AH41" s="34"/>
-      <c r="AI41" s="34"/>
-      <c r="AJ41" s="34"/>
-      <c r="AK41" s="34"/>
-      <c r="AL41" s="34"/>
-      <c r="AM41" s="34"/>
-      <c r="AN41" s="34"/>
-      <c r="AO41" s="34"/>
-      <c r="AP41" s="34"/>
-      <c r="AQ41" s="34"/>
-      <c r="AR41" s="34"/>
-      <c r="AS41" s="34"/>
-      <c r="AT41" s="34"/>
-      <c r="AU41" s="34"/>
-      <c r="AV41" s="34"/>
-      <c r="AW41" s="34"/>
-      <c r="AX41" s="34"/>
-      <c r="AY41" s="34"/>
-      <c r="AZ41" s="34"/>
-      <c r="BA41" s="34"/>
-      <c r="BB41" s="34"/>
-      <c r="BC41" s="34"/>
-      <c r="BD41" s="34"/>
-      <c r="BE41" s="34"/>
-      <c r="BF41" s="34"/>
-      <c r="BG41" s="34"/>
-      <c r="BH41" s="34"/>
-      <c r="BI41" s="34"/>
-      <c r="BJ41" s="34"/>
-      <c r="BK41" s="34"/>
-      <c r="BL41" s="34"/>
-      <c r="BM41" s="34"/>
-      <c r="BN41" s="34"/>
-    </row>
-    <row r="42" spans="1:72" s="39" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A42" s="93"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="88"/>
-      <c r="F42" s="85"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="46"/>
-      <c r="I42" s="104"/>
-      <c r="J42" s="96"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="34"/>
-      <c r="M42" s="34"/>
-      <c r="N42" s="34"/>
-      <c r="O42" s="34"/>
-      <c r="P42" s="34"/>
-      <c r="Q42" s="34"/>
-      <c r="R42" s="34"/>
-      <c r="S42" s="34"/>
-      <c r="T42" s="34"/>
-      <c r="U42" s="34"/>
-      <c r="V42" s="34"/>
-      <c r="W42" s="34"/>
-      <c r="X42" s="34"/>
-      <c r="Y42" s="34"/>
-      <c r="Z42" s="34"/>
-      <c r="AA42" s="34"/>
-      <c r="AB42" s="34"/>
-      <c r="AC42" s="34"/>
-      <c r="AD42" s="34"/>
-      <c r="AE42" s="34"/>
-      <c r="AF42" s="34"/>
-      <c r="AG42" s="34"/>
-      <c r="AH42" s="34"/>
-      <c r="AI42" s="34"/>
-      <c r="AJ42" s="34"/>
-      <c r="AK42" s="34"/>
-      <c r="AL42" s="34"/>
-      <c r="AM42" s="34"/>
-      <c r="AN42" s="34"/>
-      <c r="AO42" s="34"/>
-      <c r="AP42" s="34"/>
-      <c r="AQ42" s="34"/>
-      <c r="AR42" s="34"/>
-      <c r="AS42" s="34"/>
-      <c r="AT42" s="34"/>
-      <c r="AU42" s="34"/>
-      <c r="AV42" s="34"/>
-      <c r="AW42" s="34"/>
-      <c r="AX42" s="34"/>
-      <c r="AY42" s="34"/>
-      <c r="AZ42" s="34"/>
-      <c r="BA42" s="34"/>
-      <c r="BB42" s="34"/>
-      <c r="BC42" s="34"/>
-      <c r="BD42" s="34"/>
-      <c r="BE42" s="34"/>
-      <c r="BF42" s="34"/>
-      <c r="BG42" s="34"/>
-      <c r="BH42" s="34"/>
-      <c r="BI42" s="34"/>
-      <c r="BJ42" s="34"/>
-      <c r="BK42" s="34"/>
-      <c r="BL42" s="34"/>
-      <c r="BM42" s="34"/>
-      <c r="BN42" s="34"/>
-    </row>
-    <row r="43" spans="1:72" s="39" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A43" s="93"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="88"/>
-      <c r="F43" s="85"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="46"/>
-      <c r="I43" s="104"/>
-      <c r="J43" s="96"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="34"/>
-      <c r="M43" s="34"/>
-      <c r="N43" s="34"/>
-      <c r="O43" s="34"/>
-      <c r="P43" s="34"/>
-      <c r="Q43" s="34"/>
-      <c r="R43" s="34"/>
-      <c r="S43" s="34"/>
-      <c r="T43" s="34"/>
-      <c r="U43" s="34"/>
-      <c r="V43" s="34"/>
-      <c r="W43" s="34"/>
-      <c r="X43" s="34"/>
-      <c r="Y43" s="34"/>
-      <c r="Z43" s="34"/>
-      <c r="AA43" s="34"/>
-      <c r="AB43" s="34"/>
-      <c r="AC43" s="34"/>
-      <c r="AD43" s="34"/>
-      <c r="AE43" s="34"/>
-      <c r="AF43" s="34"/>
-      <c r="AG43" s="34"/>
-      <c r="AH43" s="34"/>
-      <c r="AI43" s="34"/>
-      <c r="AJ43" s="34"/>
-      <c r="AK43" s="34"/>
-      <c r="AL43" s="34"/>
-      <c r="AM43" s="34"/>
-      <c r="AN43" s="34"/>
-      <c r="AO43" s="34"/>
-      <c r="AP43" s="34"/>
-      <c r="AQ43" s="34"/>
-      <c r="AR43" s="34"/>
-      <c r="AS43" s="34"/>
-      <c r="AT43" s="34"/>
-      <c r="AU43" s="34"/>
-      <c r="AV43" s="34"/>
-      <c r="AW43" s="34"/>
-      <c r="AX43" s="34"/>
-      <c r="AY43" s="34"/>
-      <c r="AZ43" s="34"/>
-      <c r="BA43" s="34"/>
-      <c r="BB43" s="34"/>
-      <c r="BC43" s="34"/>
-      <c r="BD43" s="34"/>
-      <c r="BE43" s="34"/>
-      <c r="BF43" s="34"/>
-      <c r="BG43" s="34"/>
-      <c r="BH43" s="34"/>
-      <c r="BI43" s="34"/>
-      <c r="BJ43" s="34"/>
-      <c r="BK43" s="34"/>
-      <c r="BL43" s="34"/>
-      <c r="BM43" s="34"/>
-      <c r="BN43" s="34"/>
-    </row>
-    <row r="44" spans="1:72" s="39" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A44" s="93"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="88"/>
-      <c r="F44" s="85"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="46"/>
-      <c r="I44" s="104"/>
-      <c r="J44" s="96"/>
-      <c r="K44" s="34"/>
-      <c r="L44" s="34"/>
-      <c r="M44" s="34"/>
-      <c r="N44" s="34"/>
-      <c r="O44" s="34"/>
-      <c r="P44" s="34"/>
-      <c r="Q44" s="34"/>
-      <c r="R44" s="34"/>
-      <c r="S44" s="34"/>
-      <c r="T44" s="34"/>
-      <c r="U44" s="34"/>
-      <c r="V44" s="34"/>
-      <c r="W44" s="34"/>
-      <c r="X44" s="34"/>
-      <c r="Y44" s="34"/>
-      <c r="Z44" s="34"/>
-      <c r="AA44" s="34"/>
-      <c r="AB44" s="34"/>
-      <c r="AC44" s="34"/>
-      <c r="AD44" s="34"/>
-      <c r="AE44" s="34"/>
-      <c r="AF44" s="34"/>
-      <c r="AG44" s="34"/>
-      <c r="AH44" s="34"/>
-      <c r="AI44" s="34"/>
-      <c r="AJ44" s="34"/>
-      <c r="AK44" s="34"/>
-      <c r="AL44" s="34"/>
-      <c r="AM44" s="34"/>
-      <c r="AN44" s="34"/>
-      <c r="AO44" s="34"/>
-      <c r="AP44" s="34"/>
-      <c r="AQ44" s="34"/>
-      <c r="AR44" s="34"/>
-      <c r="AS44" s="34"/>
-      <c r="AT44" s="34"/>
-      <c r="AU44" s="34"/>
-      <c r="AV44" s="34"/>
-      <c r="AW44" s="34"/>
-      <c r="AX44" s="34"/>
-      <c r="AY44" s="34"/>
-      <c r="AZ44" s="34"/>
-      <c r="BA44" s="34"/>
-      <c r="BB44" s="34"/>
-      <c r="BC44" s="34"/>
-      <c r="BD44" s="34"/>
-      <c r="BE44" s="34"/>
-      <c r="BF44" s="34"/>
-      <c r="BG44" s="34"/>
-      <c r="BH44" s="34"/>
-      <c r="BI44" s="34"/>
-      <c r="BJ44" s="34"/>
-      <c r="BK44" s="34"/>
-      <c r="BL44" s="34"/>
-      <c r="BM44" s="34"/>
-      <c r="BN44" s="34"/>
-    </row>
-    <row r="45" spans="1:72" s="41" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="140" t="str">
+    <row r="33" spans="1:1" s="41" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="140" t="str">
         <f>HYPERLINK("https://vertex42.link/HowToCreateAGanttChart","► Watch How to Create a Gantt Chart in Excel")</f>
         <v>► Watch How to Create a Gantt Chart in Excel</v>
       </c>
     </row>
-    <row r="46" spans="1:72" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:72" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
-    <mergeCell ref="BH4:BN4"/>
-    <mergeCell ref="BH5:BN5"/>
-    <mergeCell ref="AM5:AS5"/>
-    <mergeCell ref="AT4:AZ4"/>
-    <mergeCell ref="AT5:AZ5"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BA5:BG5"/>
     <mergeCell ref="AD1:AR1"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
@@ -8069,9 +7135,17 @@
     <mergeCell ref="K5:Q5"/>
     <mergeCell ref="Y4:AE4"/>
     <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="BH4:BN4"/>
+    <mergeCell ref="BH5:BN5"/>
+    <mergeCell ref="AM5:AS5"/>
+    <mergeCell ref="AT4:AZ4"/>
+    <mergeCell ref="AT5:AZ5"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BA5:BG5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H8:H44">
+  <conditionalFormatting sqref="H8:H32">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8090,7 +7164,7 @@
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:BN44">
+  <conditionalFormatting sqref="K8:BN32">
     <cfRule type="expression" dxfId="2" priority="49">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
@@ -8098,7 +7172,7 @@
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:BN44">
+  <conditionalFormatting sqref="K6:BN32">
     <cfRule type="expression" dxfId="0" priority="3">
       <formula>K$6=TODAY()</formula>
     </cfRule>
@@ -8113,8 +7187,8 @@
   <pageSetup scale="61" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="B31 B32:B34 B25:B28 B19:B22 F18 F24 F30 I19 I11 I12 I10 H31:I34 H25:I28 H20:I22 H18:I18 H24:I24 H30:I30" unlockedFormula="1"/>
-    <ignoredError sqref="A30 A24 A18" formula="1"/>
+    <ignoredError sqref="F15 F20 F23 I16 I11 I12 I10 H24:I27 H21:I22 H17:I18 H15:I15 H20:I20 H23:I23" unlockedFormula="1"/>
+    <ignoredError sqref="A23 A20 A15" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>
   <legacyDrawing r:id="rId4"/>
@@ -8128,13 +7202,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>28</xdr:col>
-                    <xdr:colOff>104775</xdr:colOff>
+                    <xdr:colOff>101600</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
                   </to>
@@ -8162,7 +7236,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H8:H44</xm:sqref>
+          <xm:sqref>H8:H32</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -8179,485 +7253,485 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="90.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="5.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="90.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="21"/>
+    </row>
+    <row r="2" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A2" s="117" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="118" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="21"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="117" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="118" t="s">
+      <c r="B4" s="14"/>
+    </row>
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.15">
+      <c r="B5" s="119" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="14"/>
-    </row>
-    <row r="5" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="B5" s="119" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.15">
       <c r="B7" s="119" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B9" s="117" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="B11" s="120" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B11" s="120" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="177" t="s">
+    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="177"/>
-    </row>
-    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="B13" s="179"/>
+    </row>
+    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.15">
       <c r="A15" s="121"/>
       <c r="B15" s="122" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C15" s="123"/>
       <c r="D15" s="123"/>
     </row>
-    <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.15">
       <c r="A16" s="121"/>
       <c r="B16" s="122" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C16" s="123"/>
       <c r="D16" s="123"/>
     </row>
-    <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="124"/>
       <c r="B17" s="122" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="124"/>
       <c r="B18" s="122" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A19" s="124"/>
       <c r="B19" s="122" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="124"/>
       <c r="B20" s="122" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="124"/>
       <c r="B21" s="125" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="124"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A23" s="177" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" s="177"/>
-    </row>
-    <row r="24" spans="1:2" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="179" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="179"/>
+    </row>
+    <row r="24" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A24" s="124"/>
       <c r="B24" s="122" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="124"/>
       <c r="B25" s="122"/>
     </row>
-    <row r="26" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="124"/>
       <c r="B26" s="126" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="124"/>
       <c r="B27" s="122" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A28" s="124"/>
       <c r="B28" s="122" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="124"/>
       <c r="B29" s="122"/>
     </row>
-    <row r="30" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="124"/>
       <c r="B30" s="126" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="124"/>
       <c r="B31" s="122" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="124"/>
       <c r="B32" s="122" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="124"/>
       <c r="B33" s="3"/>
     </row>
-    <row r="34" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A34" s="124"/>
       <c r="B34" s="122" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="124"/>
       <c r="B35" s="127" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="124"/>
       <c r="B36" s="3"/>
     </row>
-    <row r="37" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A37" s="177" t="s">
+    <row r="37" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A37" s="179" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="179"/>
+    </row>
+    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.15">
+      <c r="B38" s="122" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="B40" s="122" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.15">
+      <c r="B42" s="122" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.15">
+      <c r="B44" s="122" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B45" s="10"/>
+    </row>
+    <row r="46" spans="1:2" ht="30" x14ac:dyDescent="0.15">
+      <c r="B46" s="122" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A48" s="179" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="179"/>
+    </row>
+    <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.15">
+      <c r="B49" s="122" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="A51" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="177"/>
-    </row>
-    <row r="38" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B38" s="122" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B40" s="122" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B42" s="122" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B44" s="122" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B45" s="10"/>
-    </row>
-    <row r="46" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B46" s="122" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A48" s="177" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48" s="177"/>
-    </row>
-    <row r="49" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B49" s="122" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="128" t="s">
+      <c r="B51" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="122" t="s">
+    </row>
+    <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="A52" s="128" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="128" t="s">
+      <c r="B52" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="B52" s="122" t="s">
+    </row>
+    <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="A53" s="128" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="128" t="s">
+      <c r="B53" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B53" s="122" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:2" ht="30" x14ac:dyDescent="0.15">
       <c r="A54" s="120"/>
       <c r="B54" s="122" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="30" x14ac:dyDescent="0.15">
       <c r="A55" s="120"/>
       <c r="B55" s="122" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A56" s="128" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="B56" s="122" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A57" s="120"/>
       <c r="B57" s="122" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A58" s="120"/>
       <c r="B58" s="122" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A59" s="128" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="B59" s="122" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:2" ht="30" x14ac:dyDescent="0.15">
       <c r="A60" s="120"/>
       <c r="B60" s="122" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="A61" s="128" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A61" s="128" t="s">
+      <c r="B61" s="122" t="s">
         <v>101</v>
       </c>
-      <c r="B61" s="122" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A62" s="129"/>
       <c r="B62" s="122" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B63" s="4"/>
+    </row>
+    <row r="64" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A64" s="179" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" s="179"/>
+    </row>
+    <row r="65" spans="1:2" ht="45" x14ac:dyDescent="0.15">
+      <c r="B65" s="122" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B63" s="4"/>
-    </row>
-    <row r="64" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A64" s="177" t="s">
-        <v>6</v>
-      </c>
-      <c r="B64" s="177"/>
-    </row>
-    <row r="65" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B65" s="122" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A67" s="177" t="s">
+    <row r="67" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A67" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="B67" s="177"/>
-    </row>
-    <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B67" s="179"/>
+    </row>
+    <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A68" s="130" t="s">
         <v>3</v>
       </c>
       <c r="B68" s="131" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="30" x14ac:dyDescent="0.15">
       <c r="A69" s="129"/>
       <c r="B69" s="132" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A70" s="129"/>
       <c r="B70" s="133"/>
     </row>
-    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A71" s="130" t="s">
         <v>3</v>
       </c>
       <c r="B71" s="131" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="30" x14ac:dyDescent="0.15">
       <c r="A72" s="129"/>
       <c r="B72" s="132" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A73" s="129"/>
       <c r="B73" s="133"/>
     </row>
-    <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A74" s="130" t="s">
         <v>3</v>
       </c>
       <c r="B74" s="134" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="30" x14ac:dyDescent="0.15">
       <c r="A75" s="129"/>
       <c r="B75" s="119" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A76" s="129"/>
       <c r="B76" s="129"/>
     </row>
-    <row r="77" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A77" s="130" t="s">
         <v>3</v>
       </c>
       <c r="B77" s="134" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="30" x14ac:dyDescent="0.15">
       <c r="A78" s="129"/>
       <c r="B78" s="119" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A79" s="129"/>
       <c r="B79" s="129"/>
     </row>
-    <row r="80" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A80" s="130" t="s">
         <v>3</v>
       </c>
       <c r="B80" s="134" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A81" s="129"/>
       <c r="B81" s="135" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A82" s="129"/>
       <c r="B82" s="135" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A83" s="129"/>
       <c r="B83" s="135" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A84" s="129"/>
       <c r="B84" s="136"/>
     </row>
-    <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A85" s="130" t="s">
         <v>3</v>
       </c>
       <c r="B85" s="134" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="45" x14ac:dyDescent="0.15">
       <c r="A86" s="129"/>
       <c r="B86" s="119" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A87" s="129"/>
       <c r="B87" s="137" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="45" x14ac:dyDescent="0.15">
       <c r="A88" s="129"/>
       <c r="B88" s="138" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A89" s="129"/>
       <c r="B89" s="129"/>
     </row>
-    <row r="90" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A90" s="130" t="s">
         <v>3</v>
       </c>
       <c r="B90" s="134" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="30" x14ac:dyDescent="0.15">
       <c r="A91" s="120"/>
       <c r="B91" s="135" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -8693,174 +7767,174 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" customWidth="1"/>
-    <col min="3" max="3" width="55.140625" customWidth="1"/>
+    <col min="1" max="1" width="5.5" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" customWidth="1"/>
+    <col min="3" max="3" width="55.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C4" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="C7" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C8" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C10" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C11" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="C13" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="B18" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B20" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="B22" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B23" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B24" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="B26" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B27" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B28" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B29" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="B34" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B35" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B36" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B37" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="B39" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B40" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="B42" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B43" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B44" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B46" s="11" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C4" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C5" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="C7" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C8" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C10" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C11" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="C13" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B18" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B22" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B24" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B26" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B28" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B29" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B34" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B36" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B37" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B39" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B40" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B42" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B43" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B44" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="B46" s="11" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -8883,172 +7957,172 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="82.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="82.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="20"/>
     </row>
-    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="24"/>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="22"/>
       <c r="B3" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="23"/>
     </row>
-    <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
       <c r="B4" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="7"/>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="7"/>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="7"/>
       <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="1:3" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="7"/>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="7"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="7"/>
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:3" ht="30.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="7"/>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="9"/>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>

--- a/Documents/gant_char_gs.xlsx
+++ b/Documents/gant_char_gs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emirulurak/Desktop/courses/cs320/CS320/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emiru\Desktop\courses\cs320\CS320\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B3A4D7-F756-7D4D-B55F-DA58916B0896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F43C0F-0165-4EF6-9838-A7D0CF3BA3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -2832,7 +2832,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3218,76 +3218,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="34" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="61" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="61" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="23" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="24" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="23" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="23" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="23" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="23" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="23" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="23" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="23" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="23" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="24" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="69" fillId="23" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="52" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="52" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3335,11 +3287,56 @@
     <xf numFmtId="167" fontId="52" fillId="23" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="69" fillId="23" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="23" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="23" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="23" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="23" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="23" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="23" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="23" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -3402,6 +3399,16 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF0070C0"/>
@@ -3412,16 +3419,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3582,13 +3579,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>28</xdr:col>
-          <xdr:colOff>101600</xdr:colOff>
+          <xdr:colOff>104775</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
@@ -4171,27 +4168,27 @@
   </sheetPr>
   <dimension ref="A1:ET35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I37" sqref="I37"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.83203125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" style="25" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" style="25" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="25" hidden="1" customWidth="1"/>
     <col min="5" max="6" width="12" style="25" customWidth="1"/>
     <col min="7" max="7" width="6" style="25" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" style="25" customWidth="1"/>
-    <col min="9" max="9" width="5.83203125" style="25" customWidth="1"/>
-    <col min="10" max="10" width="1.5" style="25" customWidth="1"/>
-    <col min="11" max="66" width="2.5" style="25" customWidth="1"/>
-    <col min="67" max="16384" width="9.1640625" style="25"/>
+    <col min="8" max="8" width="6.7109375" style="25" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" style="25" customWidth="1"/>
+    <col min="10" max="10" width="1.42578125" style="25" customWidth="1"/>
+    <col min="11" max="66" width="2.42578125" style="25" customWidth="1"/>
+    <col min="67" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:150" s="43" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:150" s="43" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="116" t="s">
         <v>133</v>
       </c>
@@ -4204,25 +4201,25 @@
       <c r="K1" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="AD1" s="161" t="s">
+      <c r="AD1" s="143" t="s">
         <v>125</v>
       </c>
-      <c r="AE1" s="161"/>
-      <c r="AF1" s="161"/>
-      <c r="AG1" s="161"/>
-      <c r="AH1" s="161"/>
-      <c r="AI1" s="161"/>
-      <c r="AJ1" s="161"/>
-      <c r="AK1" s="161"/>
-      <c r="AL1" s="161"/>
-      <c r="AM1" s="161"/>
-      <c r="AN1" s="161"/>
-      <c r="AO1" s="161"/>
-      <c r="AP1" s="161"/>
-      <c r="AQ1" s="161"/>
-      <c r="AR1" s="161"/>
-    </row>
-    <row r="2" spans="1:150" s="60" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE1" s="143"/>
+      <c r="AF1" s="143"/>
+      <c r="AG1" s="143"/>
+      <c r="AH1" s="143"/>
+      <c r="AI1" s="143"/>
+      <c r="AJ1" s="143"/>
+      <c r="AK1" s="143"/>
+      <c r="AL1" s="143"/>
+      <c r="AM1" s="143"/>
+      <c r="AN1" s="143"/>
+      <c r="AO1" s="143"/>
+      <c r="AP1" s="143"/>
+      <c r="AQ1" s="143"/>
+      <c r="AR1" s="143"/>
+    </row>
+    <row r="2" spans="1:150" s="60" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="110" t="s">
         <v>134</v>
       </c>
@@ -4232,7 +4229,7 @@
       <c r="E2" s="57"/>
       <c r="F2" s="59"/>
     </row>
-    <row r="3" spans="1:150" s="103" customFormat="1" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:150" s="103" customFormat="1" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="99"/>
       <c r="B3" s="100"/>
       <c r="C3" s="100"/>
@@ -4300,194 +4297,194 @@
       <c r="B4" s="111" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="168">
+      <c r="C4" s="152">
         <v>44837</v>
       </c>
-      <c r="D4" s="169"/>
-      <c r="E4" s="170"/>
+      <c r="D4" s="153"/>
+      <c r="E4" s="154"/>
       <c r="H4" s="111" t="s">
         <v>67</v>
       </c>
       <c r="I4" s="112">
         <v>1</v>
       </c>
-      <c r="K4" s="166" t="str">
+      <c r="K4" s="150" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="144"/>
-      <c r="M4" s="144"/>
-      <c r="N4" s="144"/>
-      <c r="O4" s="144"/>
-      <c r="P4" s="144"/>
-      <c r="Q4" s="171"/>
-      <c r="R4" s="166" t="str">
+      <c r="L4" s="145"/>
+      <c r="M4" s="145"/>
+      <c r="N4" s="145"/>
+      <c r="O4" s="145"/>
+      <c r="P4" s="145"/>
+      <c r="Q4" s="155"/>
+      <c r="R4" s="150" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="144"/>
-      <c r="T4" s="144"/>
-      <c r="U4" s="144"/>
-      <c r="V4" s="144"/>
-      <c r="W4" s="144"/>
-      <c r="X4" s="167"/>
-      <c r="Y4" s="175" t="str">
+      <c r="S4" s="145"/>
+      <c r="T4" s="145"/>
+      <c r="U4" s="145"/>
+      <c r="V4" s="145"/>
+      <c r="W4" s="145"/>
+      <c r="X4" s="151"/>
+      <c r="Y4" s="159" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="144"/>
-      <c r="AA4" s="144"/>
-      <c r="AB4" s="144"/>
-      <c r="AC4" s="144"/>
-      <c r="AD4" s="144"/>
-      <c r="AE4" s="176"/>
-      <c r="AF4" s="162" t="str">
+      <c r="Z4" s="145"/>
+      <c r="AA4" s="145"/>
+      <c r="AB4" s="145"/>
+      <c r="AC4" s="145"/>
+      <c r="AD4" s="145"/>
+      <c r="AE4" s="160"/>
+      <c r="AF4" s="144" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="144"/>
-      <c r="AH4" s="144"/>
-      <c r="AI4" s="144"/>
-      <c r="AJ4" s="144"/>
-      <c r="AK4" s="144"/>
-      <c r="AL4" s="163"/>
-      <c r="AM4" s="155" t="str">
+      <c r="AG4" s="145"/>
+      <c r="AH4" s="145"/>
+      <c r="AI4" s="145"/>
+      <c r="AJ4" s="145"/>
+      <c r="AK4" s="145"/>
+      <c r="AL4" s="146"/>
+      <c r="AM4" s="173" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="144"/>
-      <c r="AO4" s="144"/>
-      <c r="AP4" s="144"/>
-      <c r="AQ4" s="144"/>
-      <c r="AR4" s="144"/>
-      <c r="AS4" s="156"/>
-      <c r="AT4" s="151" t="str">
+      <c r="AN4" s="145"/>
+      <c r="AO4" s="145"/>
+      <c r="AP4" s="145"/>
+      <c r="AQ4" s="145"/>
+      <c r="AR4" s="145"/>
+      <c r="AS4" s="174"/>
+      <c r="AT4" s="169" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="144"/>
-      <c r="AV4" s="144"/>
-      <c r="AW4" s="144"/>
-      <c r="AX4" s="144"/>
-      <c r="AY4" s="144"/>
-      <c r="AZ4" s="152"/>
-      <c r="BA4" s="157" t="str">
+      <c r="AU4" s="145"/>
+      <c r="AV4" s="145"/>
+      <c r="AW4" s="145"/>
+      <c r="AX4" s="145"/>
+      <c r="AY4" s="145"/>
+      <c r="AZ4" s="170"/>
+      <c r="BA4" s="175" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="144"/>
-      <c r="BC4" s="144"/>
-      <c r="BD4" s="144"/>
-      <c r="BE4" s="144"/>
-      <c r="BF4" s="144"/>
-      <c r="BG4" s="158"/>
-      <c r="BH4" s="143" t="str">
+      <c r="BB4" s="145"/>
+      <c r="BC4" s="145"/>
+      <c r="BD4" s="145"/>
+      <c r="BE4" s="145"/>
+      <c r="BF4" s="145"/>
+      <c r="BG4" s="176"/>
+      <c r="BH4" s="163" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="144"/>
-      <c r="BJ4" s="144"/>
-      <c r="BK4" s="144"/>
-      <c r="BL4" s="144"/>
-      <c r="BM4" s="144"/>
-      <c r="BN4" s="145"/>
-    </row>
-    <row r="5" spans="1:150" s="56" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="BI4" s="145"/>
+      <c r="BJ4" s="145"/>
+      <c r="BK4" s="145"/>
+      <c r="BL4" s="145"/>
+      <c r="BM4" s="145"/>
+      <c r="BN4" s="164"/>
+    </row>
+    <row r="5" spans="1:150" s="56" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="109"/>
       <c r="B5" s="111" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="168" t="s">
+      <c r="C5" s="152" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="169"/>
-      <c r="E5" s="170"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="154"/>
       <c r="F5" s="109"/>
       <c r="G5" s="109"/>
       <c r="H5" s="109"/>
       <c r="I5" s="109"/>
-      <c r="K5" s="172">
+      <c r="K5" s="156">
         <f>K6</f>
         <v>44837</v>
       </c>
-      <c r="L5" s="147"/>
-      <c r="M5" s="147"/>
-      <c r="N5" s="147"/>
-      <c r="O5" s="147"/>
-      <c r="P5" s="147"/>
-      <c r="Q5" s="174"/>
-      <c r="R5" s="172">
+      <c r="L5" s="148"/>
+      <c r="M5" s="148"/>
+      <c r="N5" s="148"/>
+      <c r="O5" s="148"/>
+      <c r="P5" s="148"/>
+      <c r="Q5" s="158"/>
+      <c r="R5" s="156">
         <f>R6</f>
         <v>44844</v>
       </c>
-      <c r="S5" s="147"/>
-      <c r="T5" s="147"/>
-      <c r="U5" s="147"/>
-      <c r="V5" s="147"/>
-      <c r="W5" s="147"/>
-      <c r="X5" s="173"/>
-      <c r="Y5" s="177">
+      <c r="S5" s="148"/>
+      <c r="T5" s="148"/>
+      <c r="U5" s="148"/>
+      <c r="V5" s="148"/>
+      <c r="W5" s="148"/>
+      <c r="X5" s="157"/>
+      <c r="Y5" s="161">
         <f>Y6</f>
         <v>44851</v>
       </c>
-      <c r="Z5" s="147"/>
-      <c r="AA5" s="147"/>
-      <c r="AB5" s="147"/>
-      <c r="AC5" s="147"/>
-      <c r="AD5" s="147"/>
-      <c r="AE5" s="178"/>
-      <c r="AF5" s="164">
+      <c r="Z5" s="148"/>
+      <c r="AA5" s="148"/>
+      <c r="AB5" s="148"/>
+      <c r="AC5" s="148"/>
+      <c r="AD5" s="148"/>
+      <c r="AE5" s="162"/>
+      <c r="AF5" s="147">
         <f>AF6</f>
         <v>44858</v>
       </c>
-      <c r="AG5" s="147"/>
-      <c r="AH5" s="147"/>
-      <c r="AI5" s="147"/>
-      <c r="AJ5" s="147"/>
-      <c r="AK5" s="147"/>
-      <c r="AL5" s="165"/>
-      <c r="AM5" s="149">
+      <c r="AG5" s="148"/>
+      <c r="AH5" s="148"/>
+      <c r="AI5" s="148"/>
+      <c r="AJ5" s="148"/>
+      <c r="AK5" s="148"/>
+      <c r="AL5" s="149"/>
+      <c r="AM5" s="167">
         <f>AM6</f>
         <v>44865</v>
       </c>
-      <c r="AN5" s="147"/>
-      <c r="AO5" s="147"/>
-      <c r="AP5" s="147"/>
-      <c r="AQ5" s="147"/>
-      <c r="AR5" s="147"/>
-      <c r="AS5" s="150"/>
-      <c r="AT5" s="153">
+      <c r="AN5" s="148"/>
+      <c r="AO5" s="148"/>
+      <c r="AP5" s="148"/>
+      <c r="AQ5" s="148"/>
+      <c r="AR5" s="148"/>
+      <c r="AS5" s="168"/>
+      <c r="AT5" s="171">
         <f>AT6</f>
         <v>44872</v>
       </c>
-      <c r="AU5" s="147"/>
-      <c r="AV5" s="147"/>
-      <c r="AW5" s="147"/>
-      <c r="AX5" s="147"/>
-      <c r="AY5" s="147"/>
-      <c r="AZ5" s="154"/>
-      <c r="BA5" s="159">
+      <c r="AU5" s="148"/>
+      <c r="AV5" s="148"/>
+      <c r="AW5" s="148"/>
+      <c r="AX5" s="148"/>
+      <c r="AY5" s="148"/>
+      <c r="AZ5" s="172"/>
+      <c r="BA5" s="177">
         <f>BA6</f>
         <v>44879</v>
       </c>
-      <c r="BB5" s="147"/>
-      <c r="BC5" s="147"/>
-      <c r="BD5" s="147"/>
-      <c r="BE5" s="147"/>
-      <c r="BF5" s="147"/>
-      <c r="BG5" s="160"/>
-      <c r="BH5" s="146">
+      <c r="BB5" s="148"/>
+      <c r="BC5" s="148"/>
+      <c r="BD5" s="148"/>
+      <c r="BE5" s="148"/>
+      <c r="BF5" s="148"/>
+      <c r="BG5" s="178"/>
+      <c r="BH5" s="165">
         <f>BH6</f>
         <v>44886</v>
       </c>
-      <c r="BI5" s="147"/>
-      <c r="BJ5" s="147"/>
-      <c r="BK5" s="147"/>
-      <c r="BL5" s="147"/>
-      <c r="BM5" s="147"/>
-      <c r="BN5" s="148"/>
-    </row>
-    <row r="6" spans="1:150" s="54" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="BI5" s="148"/>
+      <c r="BJ5" s="148"/>
+      <c r="BK5" s="148"/>
+      <c r="BL5" s="148"/>
+      <c r="BM5" s="148"/>
+      <c r="BN5" s="166"/>
+    </row>
+    <row r="6" spans="1:150" s="54" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K6" s="65">
         <f>C4-WEEKDAY(C4,1)+2+7*(I4-1)</f>
         <v>44837</v>
@@ -4685,7 +4682,7 @@
         <v>44885</v>
       </c>
       <c r="BH6" s="78">
-        <f t="shared" si="4"/>
+        <f>BG6+1</f>
         <v>44886</v>
       </c>
       <c r="BI6" s="55">
@@ -4713,7 +4710,7 @@
         <v>44892</v>
       </c>
     </row>
-    <row r="7" spans="1:150" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:150" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
         <v>0</v>
       </c>
@@ -4779,7 +4776,7 @@
         <v>T</v>
       </c>
       <c r="T7" s="51" t="str">
-        <f t="shared" si="5"/>
+        <f>CHOOSE(WEEKDAY(T6,1),"S","M","T","W","T","F","S")</f>
         <v>W</v>
       </c>
       <c r="U7" s="51" t="str">
@@ -4871,7 +4868,7 @@
         <v>T</v>
       </c>
       <c r="AQ7" s="51" t="str">
-        <f t="shared" ref="AQ7:BN7" si="7">CHOOSE(WEEKDAY(AQ6,1),"S","M","T","W","T","F","S")</f>
+        <f t="shared" ref="AQ7:BW7" si="7">CHOOSE(WEEKDAY(AQ6,1),"S","M","T","W","T","F","S")</f>
         <v>F</v>
       </c>
       <c r="AR7" s="51" t="str">
@@ -5051,7 +5048,7 @@
       <c r="ES7" s="52"/>
       <c r="ET7" s="52"/>
     </row>
-    <row r="8" spans="1:150" s="26" customFormat="1" ht="19" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:150" s="26" customFormat="1" ht="18.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A8" s="92" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
@@ -5123,7 +5120,7 @@
       <c r="BM8" s="27"/>
       <c r="BN8" s="27"/>
     </row>
-    <row r="9" spans="1:150" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:150" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="93" t="str">
         <f t="shared" ref="A9:A14" si="8">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
@@ -5208,7 +5205,7 @@
       <c r="BM9" s="34"/>
       <c r="BN9" s="34"/>
     </row>
-    <row r="10" spans="1:150" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:150" s="32" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A10" s="93" t="str">
         <f t="shared" si="8"/>
         <v>1.2</v>
@@ -5293,7 +5290,7 @@
       <c r="BM10" s="34"/>
       <c r="BN10" s="34"/>
     </row>
-    <row r="11" spans="1:150" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:150" s="32" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A11" s="93" t="str">
         <f t="shared" si="8"/>
         <v>1.3</v>
@@ -5378,7 +5375,7 @@
       <c r="BM11" s="34"/>
       <c r="BN11" s="34"/>
     </row>
-    <row r="12" spans="1:150" s="32" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:150" s="32" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A12" s="93" t="str">
         <f t="shared" si="8"/>
         <v>1.4</v>
@@ -5463,7 +5460,7 @@
       <c r="BM12" s="34"/>
       <c r="BN12" s="34"/>
     </row>
-    <row r="13" spans="1:150" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:150" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="93" t="str">
         <f t="shared" si="8"/>
         <v>1.5</v>
@@ -5548,7 +5545,7 @@
       <c r="BM13" s="34"/>
       <c r="BN13" s="34"/>
     </row>
-    <row r="14" spans="1:150" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:150" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="93" t="str">
         <f t="shared" si="8"/>
         <v>1.6</v>
@@ -5633,7 +5630,7 @@
       <c r="BM14" s="34"/>
       <c r="BN14" s="34"/>
     </row>
-    <row r="15" spans="1:150" s="31" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:150" s="31" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="94" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>2</v>
@@ -5705,7 +5702,7 @@
       <c r="BM15" s="36"/>
       <c r="BN15" s="36"/>
     </row>
-    <row r="16" spans="1:150" s="32" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:150" s="32" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A16" s="93" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.1</v>
@@ -5789,7 +5786,7 @@
       <c r="BM16" s="34"/>
       <c r="BN16" s="34"/>
     </row>
-    <row r="17" spans="1:72" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:66" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="93" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.2</v>
@@ -5874,7 +5871,7 @@
       <c r="BM17" s="34"/>
       <c r="BN17" s="34"/>
     </row>
-    <row r="18" spans="1:72" s="32" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:66" s="32" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A18" s="93" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.3</v>
@@ -5959,14 +5956,14 @@
       <c r="BM18" s="34"/>
       <c r="BN18" s="34"/>
     </row>
-    <row r="19" spans="1:72" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:66" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="93">
         <v>2.4</v>
       </c>
       <c r="B19" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="180"/>
+      <c r="D19" s="142"/>
       <c r="E19" s="88">
         <f>F18</f>
         <v>44867</v>
@@ -6043,7 +6040,7 @@
       <c r="BM19" s="34"/>
       <c r="BN19" s="34"/>
     </row>
-    <row r="20" spans="1:72" s="31" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:66" s="31" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="94" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>3</v>
@@ -6115,7 +6112,7 @@
       <c r="BM20" s="36"/>
       <c r="BN20" s="36"/>
     </row>
-    <row r="21" spans="1:72" s="32" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:66" s="32" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A21" s="93" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.1</v>
@@ -6199,7 +6196,7 @@
       <c r="BM21" s="34"/>
       <c r="BN21" s="34"/>
     </row>
-    <row r="22" spans="1:72" s="32" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:66" s="32" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A22" s="93" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.2</v>
@@ -6283,7 +6280,7 @@
       <c r="BM22" s="34"/>
       <c r="BN22" s="34"/>
     </row>
-    <row r="23" spans="1:72" s="31" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:66" s="31" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="94" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>4</v>
@@ -6355,7 +6352,7 @@
       <c r="BM23" s="36"/>
       <c r="BN23" s="36"/>
     </row>
-    <row r="24" spans="1:72" s="32" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:66" s="32" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A24" s="93" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.1</v>
@@ -6439,7 +6436,7 @@
       <c r="BM24" s="34"/>
       <c r="BN24" s="34"/>
     </row>
-    <row r="25" spans="1:72" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:66" s="32" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A25" s="93" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.2</v>
@@ -6453,7 +6450,7 @@
         <v>44899</v>
       </c>
       <c r="F25" s="85">
-        <f t="shared" ref="F24:F27" si="16">IF(ISBLANK(E25)," - ",IF(G25=0,E25,E25+G25-1))</f>
+        <f t="shared" ref="F25" si="16">IF(ISBLANK(E25)," - ",IF(G25=0,E25,E25+G25-1))</f>
         <v>44905</v>
       </c>
       <c r="G25" s="45">
@@ -6524,7 +6521,7 @@
       <c r="BM25" s="34"/>
       <c r="BN25" s="34"/>
     </row>
-    <row r="26" spans="1:72" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:66" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="93" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.3</v>
@@ -6609,7 +6606,7 @@
       <c r="BM26" s="34"/>
       <c r="BN26" s="34"/>
     </row>
-    <row r="27" spans="1:72" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:66" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="93" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.4</v>
@@ -6694,7 +6691,7 @@
       <c r="BM27" s="34"/>
       <c r="BN27" s="34"/>
     </row>
-    <row r="28" spans="1:72" s="142" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:66" s="39" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="94" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>5</v>
@@ -6767,7 +6764,7 @@
       <c r="BM28" s="34"/>
       <c r="BN28" s="34"/>
     </row>
-    <row r="29" spans="1:72" s="39" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:66" s="39" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="93" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>5.1</v>
@@ -6851,14 +6848,8 @@
       <c r="BL29" s="34"/>
       <c r="BM29" s="34"/>
       <c r="BN29" s="34"/>
-      <c r="BO29" s="142"/>
-      <c r="BP29" s="142"/>
-      <c r="BQ29" s="142"/>
-      <c r="BR29" s="142"/>
-      <c r="BS29" s="142"/>
-      <c r="BT29" s="142"/>
-    </row>
-    <row r="30" spans="1:72" s="39" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:66" s="39" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="93" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>5.2</v>
@@ -6943,7 +6934,7 @@
       <c r="BM30" s="34"/>
       <c r="BN30" s="34"/>
     </row>
-    <row r="31" spans="1:72" s="40" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:66" s="40" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="93" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>5.3</v>
@@ -7028,7 +7019,7 @@
       <c r="BM31" s="34"/>
       <c r="BN31" s="34"/>
     </row>
-    <row r="32" spans="1:72" s="39" customFormat="1" ht="19" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:66" s="39" customFormat="1" ht="24.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A32" s="93" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>5.4</v>
@@ -7113,17 +7104,25 @@
       <c r="BM32" s="34"/>
       <c r="BN32" s="34"/>
     </row>
-    <row r="33" spans="1:1" s="41" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:1" s="41" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="140" t="str">
         <f>HYPERLINK("https://vertex42.link/HowToCreateAGanttChart","► Watch How to Create a Gantt Chart in Excel")</f>
         <v>► Watch How to Create a Gantt Chart in Excel</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
+    <mergeCell ref="BH4:BN4"/>
+    <mergeCell ref="BH5:BN5"/>
+    <mergeCell ref="AM5:AS5"/>
+    <mergeCell ref="AT4:AZ4"/>
+    <mergeCell ref="AT5:AZ5"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BA5:BG5"/>
     <mergeCell ref="AD1:AR1"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
@@ -7135,14 +7134,6 @@
     <mergeCell ref="K5:Q5"/>
     <mergeCell ref="Y4:AE4"/>
     <mergeCell ref="Y5:AE5"/>
-    <mergeCell ref="BH4:BN4"/>
-    <mergeCell ref="BH5:BN5"/>
-    <mergeCell ref="AM5:AS5"/>
-    <mergeCell ref="AT4:AZ4"/>
-    <mergeCell ref="AT5:AZ5"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BA5:BG5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H8:H32">
@@ -7160,15 +7151,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:BM7">
-    <cfRule type="expression" dxfId="3" priority="46">
+    <cfRule type="expression" dxfId="1" priority="46">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:BN32">
-    <cfRule type="expression" dxfId="2" priority="49">
+    <cfRule type="expression" dxfId="3" priority="49">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="50">
+    <cfRule type="expression" dxfId="2" priority="50">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7202,13 +7193,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>28</xdr:col>
-                    <xdr:colOff>101600</xdr:colOff>
+                    <xdr:colOff>104775</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
                   </to>
@@ -7249,66 +7240,66 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A24" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="90.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="5.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="90.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>70</v>
       </c>
       <c r="B1" s="21"/>
     </row>
-    <row r="2" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="117" t="s">
         <v>45</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="118" t="s">
         <v>71</v>
       </c>
       <c r="B4" s="14"/>
     </row>
-    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B5" s="119" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B7" s="119" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B9" s="117" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B11" s="120" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="179" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="179"/>
     </row>
-    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="121"/>
       <c r="B15" s="122" t="s">
         <v>73</v>
@@ -7316,7 +7307,7 @@
       <c r="C15" s="123"/>
       <c r="D15" s="123"/>
     </row>
-    <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="121"/>
       <c r="B16" s="122" t="s">
         <v>74</v>
@@ -7324,162 +7315,162 @@
       <c r="C16" s="123"/>
       <c r="D16" s="123"/>
     </row>
-    <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="124"/>
       <c r="B17" s="122" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="124"/>
       <c r="B18" s="122" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A19" s="124"/>
       <c r="B19" s="122" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" s="124"/>
       <c r="B20" s="122" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="124"/>
       <c r="B21" s="125" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="124"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="179" t="s">
         <v>79</v>
       </c>
       <c r="B23" s="179"/>
     </row>
-    <row r="24" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A24" s="124"/>
       <c r="B24" s="122" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="124"/>
       <c r="B25" s="122"/>
     </row>
-    <row r="26" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="124"/>
       <c r="B26" s="126" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="124"/>
       <c r="B27" s="122" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A28" s="124"/>
       <c r="B28" s="122" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="124"/>
       <c r="B29" s="122"/>
     </row>
-    <row r="30" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="124"/>
       <c r="B30" s="126" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="124"/>
       <c r="B31" s="122" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="124"/>
       <c r="B32" s="122" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="124"/>
       <c r="B33" s="3"/>
     </row>
-    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A34" s="124"/>
       <c r="B34" s="122" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A35" s="124"/>
       <c r="B35" s="127" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A36" s="124"/>
       <c r="B36" s="3"/>
     </row>
-    <row r="37" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" s="179" t="s">
         <v>6</v>
       </c>
       <c r="B37" s="179"/>
     </row>
-    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B38" s="122" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B40" s="122" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B42" s="122" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B44" s="122" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B45" s="10"/>
     </row>
-    <row r="46" spans="1:2" ht="30" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B46" s="122" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="179" t="s">
         <v>4</v>
       </c>
       <c r="B48" s="179"/>
     </row>
-    <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B49" s="122" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="128" t="s">
         <v>7</v>
       </c>
@@ -7487,7 +7478,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="128" t="s">
         <v>9</v>
       </c>
@@ -7495,7 +7486,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="128" t="s">
         <v>11</v>
       </c>
@@ -7503,19 +7494,19 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="30" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A54" s="120"/>
       <c r="B54" s="122" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="30" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A55" s="120"/>
       <c r="B55" s="122" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="128" t="s">
         <v>13</v>
       </c>
@@ -7523,19 +7514,19 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="120"/>
       <c r="B57" s="122" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="120"/>
       <c r="B58" s="122" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="128" t="s">
         <v>15</v>
       </c>
@@ -7543,13 +7534,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="30" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A60" s="120"/>
       <c r="B60" s="122" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="128" t="s">
         <v>100</v>
       </c>
@@ -7557,33 +7548,33 @@
         <v>101</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="129"/>
       <c r="B62" s="122" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B63" s="4"/>
     </row>
-    <row r="64" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="179" t="s">
         <v>5</v>
       </c>
       <c r="B64" s="179"/>
     </row>
-    <row r="65" spans="1:2" ht="45" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B65" s="122" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A67" s="179" t="s">
         <v>2</v>
       </c>
       <c r="B67" s="179"/>
     </row>
-    <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="130" t="s">
         <v>3</v>
       </c>
@@ -7591,17 +7582,17 @@
         <v>104</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="30" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A69" s="129"/>
       <c r="B69" s="132" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="129"/>
       <c r="B70" s="133"/>
     </row>
-    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="130" t="s">
         <v>3</v>
       </c>
@@ -7609,17 +7600,17 @@
         <v>106</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="30" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A72" s="129"/>
       <c r="B72" s="132" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A73" s="129"/>
       <c r="B73" s="133"/>
     </row>
-    <row r="74" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="130" t="s">
         <v>3</v>
       </c>
@@ -7627,17 +7618,17 @@
         <v>108</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="30" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A75" s="129"/>
       <c r="B75" s="119" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A76" s="129"/>
       <c r="B76" s="129"/>
     </row>
-    <row r="77" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="130" t="s">
         <v>3</v>
       </c>
@@ -7645,17 +7636,17 @@
         <v>110</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="30" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A78" s="129"/>
       <c r="B78" s="119" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A79" s="129"/>
       <c r="B79" s="129"/>
     </row>
-    <row r="80" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="130" t="s">
         <v>3</v>
       </c>
@@ -7663,29 +7654,29 @@
         <v>112</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A81" s="129"/>
       <c r="B81" s="135" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A82" s="129"/>
       <c r="B82" s="135" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A83" s="129"/>
       <c r="B83" s="135" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="129"/>
       <c r="B84" s="136"/>
     </row>
-    <row r="85" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="130" t="s">
         <v>3</v>
       </c>
@@ -7693,29 +7684,29 @@
         <v>116</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="45" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A86" s="129"/>
       <c r="B86" s="119" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A87" s="129"/>
       <c r="B87" s="137" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="45" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A88" s="129"/>
       <c r="B88" s="138" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A89" s="129"/>
       <c r="B89" s="129"/>
     </row>
-    <row r="90" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="130" t="s">
         <v>3</v>
       </c>
@@ -7723,13 +7714,13 @@
         <v>120</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="30" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A91" s="120"/>
       <c r="B91" s="135" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="15" t="s">
         <v>50</v>
       </c>
@@ -7767,172 +7758,172 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="37.6640625" customWidth="1"/>
-    <col min="3" max="3" width="55.1640625" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1"/>
+    <col min="3" max="3" width="55.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="C7" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="C13" s="11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B26" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B34" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B39" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B42" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B46" s="11" t="s">
         <v>20</v>
       </c>
@@ -7957,172 +7948,172 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>48</v>
       </c>
       <c r="B1" s="20"/>
     </row>
-    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="B2" s="24"/>
     </row>
-    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="22"/>
       <c r="B3" s="17" t="s">
         <v>49</v>
       </c>
       <c r="C3" s="23"/>
     </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="19" t="s">
         <v>45</v>
       </c>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="7"/>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="7"/>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="7" t="s">
         <v>51</v>
       </c>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="7"/>
       <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="7"/>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="7" t="s">
         <v>53</v>
       </c>
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="7"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="7"/>
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="30.75" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="7" t="s">
         <v>55</v>
       </c>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="7"/>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="18" t="s">
         <v>46</v>
       </c>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="9"/>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
